--- a/AAII_Financials/Quarterly/CNBX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNBX_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>CNBX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,81 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E7" s="2">
         <v>43799</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43708</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43616</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43524</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43434</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43343</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43251</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43159</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43069</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42978</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42886</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42794</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42704</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,14 +779,17 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="3">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,55 +907,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E12" s="3">
         <v>500</v>
       </c>
       <c r="F12" s="3">
+        <v>500</v>
+      </c>
+      <c r="G12" s="3">
         <v>300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>200</v>
-      </c>
-      <c r="M12" s="3">
-        <v>100</v>
       </c>
       <c r="N12" s="3">
         <v>100</v>
       </c>
       <c r="O12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P12" s="3">
         <v>0</v>
       </c>
       <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1014,8 +1034,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1061,8 +1084,8 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>4</v>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,55 +1124,59 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>900</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>900</v>
-      </c>
-      <c r="H17" s="3">
-        <v>700</v>
       </c>
       <c r="I17" s="3">
         <v>700</v>
       </c>
       <c r="J17" s="3">
+        <v>700</v>
+      </c>
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
-      </c>
-      <c r="P17" s="3">
-        <v>100</v>
       </c>
       <c r="Q17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,46 +1184,49 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-900</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-700</v>
       </c>
       <c r="I18" s="3">
         <v>-700</v>
       </c>
       <c r="J18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1220,17 +1254,17 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4600</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1238,28 +1272,31 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1267,46 +1304,49 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1343,64 +1383,70 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3700</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-700</v>
       </c>
       <c r="I23" s="3">
         <v>-700</v>
       </c>
       <c r="J23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-100</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3700</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-700</v>
       </c>
       <c r="I26" s="3">
         <v>-700</v>
       </c>
       <c r="J26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3700</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-700</v>
       </c>
       <c r="I27" s="3">
         <v>-700</v>
       </c>
       <c r="J27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1784,17 +1854,17 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4600</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1802,75 +1872,81 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3700</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-700</v>
       </c>
       <c r="I33" s="3">
         <v>-700</v>
       </c>
       <c r="J33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3700</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-700</v>
       </c>
       <c r="I35" s="3">
         <v>-700</v>
       </c>
       <c r="J35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E38" s="2">
         <v>43799</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43708</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43616</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43524</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43434</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43343</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43251</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43159</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43069</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42978</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42886</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42794</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42704</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,70 +2139,74 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E41" s="3">
         <v>300</v>
       </c>
       <c r="F41" s="3">
+        <v>300</v>
+      </c>
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2200</v>
-      </c>
-      <c r="K41" s="3">
-        <v>2900</v>
       </c>
       <c r="L41" s="3">
         <v>2900</v>
       </c>
       <c r="M41" s="3">
+        <v>2900</v>
+      </c>
+      <c r="N41" s="3">
         <v>3400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E42" s="3">
         <v>2500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>3300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>3900</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2126,8 +2216,8 @@
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2147,8 +2237,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2156,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>500</v>
@@ -2167,8 +2260,8 @@
       <c r="H43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+      <c r="I43" s="3">
+        <v>500</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
@@ -2185,8 +2278,8 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2194,8 +2287,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,8 +2337,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2250,22 +2349,22 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
-      </c>
-      <c r="H45" s="3">
-        <v>200</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -2277,90 +2376,96 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E46" s="3">
         <v>3000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>400</v>
+      </c>
+      <c r="E47" s="3">
         <v>2500</v>
       </c>
-      <c r="E47" s="3">
-        <v>9900</v>
-      </c>
       <c r="F47" s="3">
-        <v>13500</v>
+        <v>6000</v>
       </c>
       <c r="G47" s="3">
-        <v>11400</v>
+        <v>9200</v>
       </c>
       <c r="H47" s="3">
-        <v>1200</v>
+        <v>7300</v>
       </c>
       <c r="I47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J47" s="3">
         <v>600</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2373,8 +2478,8 @@
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2382,13 +2487,16 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E48" s="3">
         <v>1000</v>
@@ -2406,13 +2514,13 @@
         <v>1000</v>
       </c>
       <c r="J48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K48" s="3">
         <v>800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>700</v>
-      </c>
-      <c r="L48" s="3">
-        <v>100</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
@@ -2421,7 +2529,7 @@
         <v>100</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2429,8 +2537,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2441,19 +2552,19 @@
         <v>0</v>
       </c>
       <c r="F49" s="3">
-        <v>0</v>
+        <v>3900</v>
       </c>
       <c r="G49" s="3">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="H49" s="3">
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2587,11 +2707,11 @@
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
@@ -2608,8 +2728,8 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E54" s="3">
         <v>6500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>19800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>18300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9500</v>
-      </c>
-      <c r="I54" s="3">
-        <v>3200</v>
       </c>
       <c r="J54" s="3">
         <v>3200</v>
       </c>
       <c r="K54" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L54" s="3">
         <v>3700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>300</v>
       </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,8 +2879,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2770,7 +2901,7 @@
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
@@ -2782,22 +2913,25 @@
         <v>300</v>
       </c>
       <c r="M57" s="3">
+        <v>300</v>
+      </c>
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
-      </c>
-      <c r="O57" s="3">
-        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
       </c>
       <c r="Q57" s="3">
+        <v>200</v>
+      </c>
+      <c r="R57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2843,8 +2977,11 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2873,7 +3010,7 @@
         <v>200</v>
       </c>
       <c r="L59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>300</v>
@@ -2882,16 +3019,19 @@
         <v>300</v>
       </c>
       <c r="O59" s="3">
+        <v>300</v>
+      </c>
+      <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2902,16 +3042,16 @@
         <v>400</v>
       </c>
       <c r="F60" s="3">
+        <v>400</v>
+      </c>
+      <c r="G60" s="3">
         <v>500</v>
-      </c>
-      <c r="G60" s="3">
-        <v>400</v>
       </c>
       <c r="H60" s="3">
         <v>400</v>
       </c>
       <c r="I60" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J60" s="3">
         <v>500</v>
@@ -2920,25 +3060,28 @@
         <v>500</v>
       </c>
       <c r="L60" s="3">
+        <v>500</v>
+      </c>
+      <c r="M60" s="3">
         <v>600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>800</v>
-      </c>
-      <c r="P60" s="3">
-        <v>500</v>
       </c>
       <c r="Q60" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,31 +3127,34 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3022,17 +3168,20 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,8 +3327,11 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3184,16 +3342,16 @@
         <v>400</v>
       </c>
       <c r="F66" s="3">
+        <v>400</v>
+      </c>
+      <c r="G66" s="3">
         <v>500</v>
-      </c>
-      <c r="G66" s="3">
-        <v>400</v>
       </c>
       <c r="H66" s="3">
         <v>400</v>
       </c>
       <c r="I66" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J66" s="3">
         <v>500</v>
@@ -3202,25 +3360,28 @@
         <v>500</v>
       </c>
       <c r="L66" s="3">
+        <v>500</v>
+      </c>
+      <c r="M66" s="3">
         <v>600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>800</v>
-      </c>
-      <c r="P66" s="3">
-        <v>500</v>
       </c>
       <c r="Q66" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E76" s="3">
         <v>6000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>14700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>19300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>18000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9100</v>
-      </c>
-      <c r="I76" s="3">
-        <v>2600</v>
       </c>
       <c r="J76" s="3">
         <v>2600</v>
       </c>
       <c r="K76" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L76" s="3">
         <v>3200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2400</v>
-      </c>
-      <c r="M76" s="3">
-        <v>2900</v>
       </c>
       <c r="N76" s="3">
         <v>2900</v>
       </c>
       <c r="O76" s="3">
-        <v>-200</v>
+        <v>2900</v>
       </c>
       <c r="P76" s="3">
         <v>-200</v>
       </c>
       <c r="Q76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R76" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E80" s="2">
         <v>43799</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43708</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43616</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43524</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43434</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43343</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43251</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43159</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43069</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42978</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42886</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42794</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42704</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3700</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-700</v>
       </c>
       <c r="I81" s="3">
         <v>-700</v>
       </c>
       <c r="J81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3835,7 +4034,7 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -3847,11 +4046,11 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-700</v>
       </c>
       <c r="H89" s="3">
         <v>-700</v>
       </c>
       <c r="I89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-200</v>
       </c>
       <c r="O89" s="3">
         <v>-200</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4186,43 +4407,46 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-600</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E94" s="3">
         <v>800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4584,40 +4830,43 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>7100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>300</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2600</v>
-      </c>
-      <c r="O102" s="3">
-        <v>300</v>
       </c>
       <c r="P102" s="3">
         <v>300</v>
       </c>
       <c r="Q102" s="3">
+        <v>300</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNBX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNBX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>CNBX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E7" s="2">
         <v>43890</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43799</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43708</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43616</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43524</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43434</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43343</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43251</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43159</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43069</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42978</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42886</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42794</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42704</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,14 +786,17 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="3">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -917,49 +931,52 @@
         <v>400</v>
       </c>
       <c r="E12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F12" s="3">
         <v>500</v>
       </c>
       <c r="G12" s="3">
+        <v>500</v>
+      </c>
+      <c r="H12" s="3">
         <v>300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>200</v>
-      </c>
-      <c r="N12" s="3">
-        <v>100</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
       </c>
       <c r="P12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="3">
         <v>0</v>
       </c>
       <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1037,8 +1057,8 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1087,8 +1110,8 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,58 +1151,62 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>900</v>
-      </c>
-      <c r="I17" s="3">
-        <v>700</v>
       </c>
       <c r="J17" s="3">
         <v>700</v>
       </c>
       <c r="K17" s="3">
+        <v>700</v>
+      </c>
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>100</v>
       </c>
       <c r="R17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,49 +1214,52 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-900</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-700</v>
       </c>
       <c r="J18" s="3">
         <v>-700</v>
       </c>
       <c r="K18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1254,20 +1288,20 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-4300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4600</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1275,28 +1309,31 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1304,49 +1341,52 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-5100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1386,67 +1426,73 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3700</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-700</v>
       </c>
       <c r="J23" s="3">
         <v>-700</v>
       </c>
       <c r="K23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
       </c>
       <c r="R23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3700</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-700</v>
       </c>
       <c r="J26" s="3">
         <v>-700</v>
       </c>
       <c r="K26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
       </c>
       <c r="R26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3700</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-700</v>
       </c>
       <c r="J27" s="3">
         <v>-700</v>
       </c>
       <c r="K27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1854,20 +1924,20 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>4300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4600</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1875,78 +1945,84 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3700</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-700</v>
       </c>
       <c r="J33" s="3">
         <v>-700</v>
       </c>
       <c r="K33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
       </c>
       <c r="R33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3700</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-700</v>
       </c>
       <c r="J35" s="3">
         <v>-700</v>
       </c>
       <c r="K35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
       </c>
       <c r="R35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E38" s="2">
         <v>43890</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43799</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43708</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43616</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43524</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43434</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43343</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43251</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43159</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43069</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42978</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42886</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42794</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42704</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,76 +2226,80 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
-      </c>
-      <c r="E41" s="3">
-        <v>300</v>
       </c>
       <c r="F41" s="3">
         <v>300</v>
       </c>
       <c r="G41" s="3">
+        <v>300</v>
+      </c>
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2200</v>
-      </c>
-      <c r="L41" s="3">
-        <v>2900</v>
       </c>
       <c r="M41" s="3">
         <v>2900</v>
       </c>
       <c r="N41" s="3">
+        <v>2900</v>
+      </c>
+      <c r="O41" s="3">
         <v>3400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E42" s="3">
         <v>1500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>3300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>3900</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2219,8 +2309,8 @@
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2252,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>500</v>
@@ -2263,8 +2356,8 @@
       <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
+      <c r="J43" s="3">
+        <v>500</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
@@ -2281,8 +2374,8 @@
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2352,22 +2451,22 @@
         <v>200</v>
       </c>
       <c r="F45" s="3">
+        <v>200</v>
+      </c>
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
-      </c>
-      <c r="I45" s="3">
-        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -2379,96 +2478,102 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E46" s="3">
         <v>2300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E47" s="3">
         <v>400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>9200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>7300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>600</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2481,8 +2586,8 @@
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2499,7 +2607,7 @@
         <v>900</v>
       </c>
       <c r="E48" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F48" s="3">
         <v>1000</v>
@@ -2517,13 +2625,13 @@
         <v>1000</v>
       </c>
       <c r="K48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L48" s="3">
         <v>800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>700</v>
-      </c>
-      <c r="M48" s="3">
-        <v>100</v>
       </c>
       <c r="N48" s="3">
         <v>100</v>
@@ -2532,7 +2640,7 @@
         <v>100</v>
       </c>
       <c r="P48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2552,22 +2663,22 @@
         <v>0</v>
       </c>
       <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
         <v>3900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>200</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2710,11 +2830,11 @@
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
@@ -2731,8 +2851,8 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E54" s="3">
         <v>3600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>19800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>18300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9500</v>
-      </c>
-      <c r="J54" s="3">
-        <v>3200</v>
       </c>
       <c r="K54" s="3">
         <v>3200</v>
       </c>
       <c r="L54" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M54" s="3">
         <v>3700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>300</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2904,7 +3035,7 @@
         <v>200</v>
       </c>
       <c r="J57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
@@ -2916,22 +3047,25 @@
         <v>300</v>
       </c>
       <c r="N57" s="3">
+        <v>300</v>
+      </c>
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
-      </c>
-      <c r="P57" s="3">
-        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
       </c>
       <c r="R57" s="3">
+        <v>200</v>
+      </c>
+      <c r="S57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,8 +3114,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3013,7 +3150,7 @@
         <v>200</v>
       </c>
       <c r="M59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N59" s="3">
         <v>300</v>
@@ -3022,16 +3159,19 @@
         <v>300</v>
       </c>
       <c r="P59" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3045,16 +3185,16 @@
         <v>400</v>
       </c>
       <c r="G60" s="3">
+        <v>400</v>
+      </c>
+      <c r="H60" s="3">
         <v>500</v>
-      </c>
-      <c r="H60" s="3">
-        <v>400</v>
       </c>
       <c r="I60" s="3">
         <v>400</v>
       </c>
       <c r="J60" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K60" s="3">
         <v>500</v>
@@ -3063,25 +3203,28 @@
         <v>500</v>
       </c>
       <c r="M60" s="3">
+        <v>500</v>
+      </c>
+      <c r="N60" s="3">
         <v>600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>800</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>500</v>
       </c>
       <c r="R60" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3156,8 +3302,8 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -3171,17 +3317,20 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
+      <c r="P62" s="3">
+        <v>0</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,8 +3485,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3345,16 +3503,16 @@
         <v>400</v>
       </c>
       <c r="G66" s="3">
+        <v>400</v>
+      </c>
+      <c r="H66" s="3">
         <v>500</v>
-      </c>
-      <c r="H66" s="3">
-        <v>400</v>
       </c>
       <c r="I66" s="3">
         <v>400</v>
       </c>
       <c r="J66" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K66" s="3">
         <v>500</v>
@@ -3363,25 +3521,28 @@
         <v>500</v>
       </c>
       <c r="M66" s="3">
+        <v>500</v>
+      </c>
+      <c r="N66" s="3">
         <v>600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>800</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>500</v>
       </c>
       <c r="R66" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-11300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E76" s="3">
         <v>3200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>19300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>18000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9100</v>
-      </c>
-      <c r="J76" s="3">
-        <v>2600</v>
       </c>
       <c r="K76" s="3">
         <v>2600</v>
       </c>
       <c r="L76" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M76" s="3">
         <v>3200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2400</v>
-      </c>
-      <c r="N76" s="3">
-        <v>2900</v>
       </c>
       <c r="O76" s="3">
         <v>2900</v>
       </c>
       <c r="P76" s="3">
-        <v>-200</v>
+        <v>2900</v>
       </c>
       <c r="Q76" s="3">
         <v>-200</v>
       </c>
       <c r="R76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S76" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E80" s="2">
         <v>43890</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43799</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43708</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43616</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43524</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43434</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43343</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43251</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43159</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43069</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42978</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42886</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42794</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42704</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3700</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-700</v>
       </c>
       <c r="J81" s="3">
         <v>-700</v>
       </c>
       <c r="K81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
       </c>
       <c r="R81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4037,7 +4236,7 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -4049,11 +4248,11 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-700</v>
       </c>
       <c r="I89" s="3">
         <v>-700</v>
       </c>
       <c r="J89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-200</v>
       </c>
       <c r="P89" s="3">
         <v>-200</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,13 +4615,14 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4410,43 +4631,46 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-600</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>300</v>
+      </c>
+      <c r="E94" s="3">
         <v>1000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4833,40 +5079,43 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>7100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-600</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2600</v>
-      </c>
-      <c r="P102" s="3">
-        <v>300</v>
       </c>
       <c r="Q102" s="3">
         <v>300</v>
       </c>
       <c r="R102" s="3">
+        <v>300</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNBX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNBX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>CNBX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E7" s="2">
         <v>43982</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43890</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43799</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43708</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43616</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43524</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43434</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43343</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43251</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43159</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43069</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42978</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42886</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42794</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42704</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,14 +793,17 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="3">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -934,49 +948,52 @@
         <v>400</v>
       </c>
       <c r="F12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G12" s="3">
         <v>500</v>
       </c>
       <c r="H12" s="3">
+        <v>500</v>
+      </c>
+      <c r="I12" s="3">
         <v>300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>200</v>
-      </c>
-      <c r="O12" s="3">
-        <v>100</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
       </c>
       <c r="Q12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R12" s="3">
         <v>0</v>
       </c>
       <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1060,8 +1080,8 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1113,8 +1136,8 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>4</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1161,52 +1188,55 @@
         <v>700</v>
       </c>
       <c r="E17" s="3">
+        <v>700</v>
+      </c>
+      <c r="F17" s="3">
         <v>900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>900</v>
-      </c>
-      <c r="J17" s="3">
-        <v>700</v>
       </c>
       <c r="K17" s="3">
         <v>700</v>
       </c>
       <c r="L17" s="3">
+        <v>700</v>
+      </c>
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
-      </c>
-      <c r="R17" s="3">
-        <v>100</v>
       </c>
       <c r="S17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,52 +1244,55 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-700</v>
       </c>
       <c r="K18" s="3">
         <v>-700</v>
       </c>
       <c r="L18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1291,20 +1325,20 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-4300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4600</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1312,28 +1346,31 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,52 +1378,55 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1429,17 +1469,20 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1447,52 +1490,55 @@
         <v>-700</v>
       </c>
       <c r="E23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3700</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-700</v>
       </c>
       <c r="K23" s="3">
         <v>-700</v>
       </c>
       <c r="L23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-100</v>
       </c>
       <c r="S23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1606,52 +1658,55 @@
         <v>-700</v>
       </c>
       <c r="E26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3700</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-700</v>
       </c>
       <c r="K26" s="3">
         <v>-700</v>
       </c>
       <c r="L26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-100</v>
       </c>
       <c r="S26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1659,52 +1714,55 @@
         <v>-700</v>
       </c>
       <c r="E27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3700</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-700</v>
       </c>
       <c r="K27" s="3">
         <v>-700</v>
       </c>
       <c r="L27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-100</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1927,20 +1997,20 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>4300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4600</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1948,28 +2018,31 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1977,52 +2050,55 @@
         <v>-700</v>
       </c>
       <c r="E33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3700</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-700</v>
       </c>
       <c r="K33" s="3">
         <v>-700</v>
       </c>
       <c r="L33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-100</v>
       </c>
       <c r="S33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2083,110 +2162,116 @@
         <v>-700</v>
       </c>
       <c r="E35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3700</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-700</v>
       </c>
       <c r="K35" s="3">
         <v>-700</v>
       </c>
       <c r="L35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-100</v>
       </c>
       <c r="S35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E38" s="2">
         <v>43982</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43890</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43799</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43708</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43616</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43524</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43434</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43343</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43251</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43159</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43069</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42978</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42886</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42794</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42704</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,82 +2313,86 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>800</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>600</v>
-      </c>
-      <c r="F41" s="3">
-        <v>300</v>
       </c>
       <c r="G41" s="3">
         <v>300</v>
       </c>
       <c r="H41" s="3">
+        <v>300</v>
+      </c>
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2200</v>
-      </c>
-      <c r="M41" s="3">
-        <v>2900</v>
       </c>
       <c r="N41" s="3">
         <v>2900</v>
       </c>
       <c r="O41" s="3">
+        <v>2900</v>
+      </c>
+      <c r="P41" s="3">
         <v>3400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>1100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>3300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3900</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2312,8 +2402,8 @@
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2348,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>500</v>
@@ -2359,8 +2452,8 @@
       <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
+      <c r="K43" s="3">
+        <v>500</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
@@ -2377,8 +2470,8 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2454,22 +2553,22 @@
         <v>200</v>
       </c>
       <c r="G45" s="3">
+        <v>200</v>
+      </c>
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
-      </c>
-      <c r="J45" s="3">
-        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -2481,102 +2580,108 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>400</v>
+      </c>
+      <c r="E47" s="3">
         <v>3000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>9200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>7300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>600</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2589,8 +2694,8 @@
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2610,7 +2718,7 @@
         <v>900</v>
       </c>
       <c r="F48" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G48" s="3">
         <v>1000</v>
@@ -2628,13 +2736,13 @@
         <v>1000</v>
       </c>
       <c r="L48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M48" s="3">
         <v>800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>700</v>
-      </c>
-      <c r="N48" s="3">
-        <v>100</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
@@ -2643,7 +2751,7 @@
         <v>100</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2666,22 +2777,22 @@
         <v>0</v>
       </c>
       <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
         <v>3900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>200</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2833,11 +2953,11 @@
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
@@ -2854,8 +2974,8 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E54" s="3">
         <v>5500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>19800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>18300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9500</v>
-      </c>
-      <c r="K54" s="3">
-        <v>3200</v>
       </c>
       <c r="L54" s="3">
         <v>3200</v>
       </c>
       <c r="M54" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N54" s="3">
         <v>3700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>300</v>
       </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3038,7 +3169,7 @@
         <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
@@ -3050,22 +3181,25 @@
         <v>300</v>
       </c>
       <c r="O57" s="3">
+        <v>300</v>
+      </c>
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>200</v>
       </c>
       <c r="R57" s="3">
         <v>200</v>
       </c>
       <c r="S57" s="3">
+        <v>200</v>
+      </c>
+      <c r="T57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3153,7 +3290,7 @@
         <v>200</v>
       </c>
       <c r="N59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O59" s="3">
         <v>300</v>
@@ -3162,21 +3299,24 @@
         <v>300</v>
       </c>
       <c r="Q59" s="3">
+        <v>300</v>
+      </c>
+      <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E60" s="3">
         <v>400</v>
@@ -3188,16 +3328,16 @@
         <v>400</v>
       </c>
       <c r="H60" s="3">
+        <v>400</v>
+      </c>
+      <c r="I60" s="3">
         <v>500</v>
-      </c>
-      <c r="I60" s="3">
-        <v>400</v>
       </c>
       <c r="J60" s="3">
         <v>400</v>
       </c>
       <c r="K60" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L60" s="3">
         <v>500</v>
@@ -3206,25 +3346,28 @@
         <v>500</v>
       </c>
       <c r="N60" s="3">
+        <v>500</v>
+      </c>
+      <c r="O60" s="3">
         <v>600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>800</v>
-      </c>
-      <c r="R60" s="3">
-        <v>500</v>
       </c>
       <c r="S60" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3305,8 +3451,8 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -3320,17 +3466,20 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,13 +3643,16 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E66" s="3">
         <v>400</v>
@@ -3506,16 +3664,16 @@
         <v>400</v>
       </c>
       <c r="H66" s="3">
+        <v>400</v>
+      </c>
+      <c r="I66" s="3">
         <v>500</v>
-      </c>
-      <c r="I66" s="3">
-        <v>400</v>
       </c>
       <c r="J66" s="3">
         <v>400</v>
       </c>
       <c r="K66" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L66" s="3">
         <v>500</v>
@@ -3524,25 +3682,28 @@
         <v>500</v>
       </c>
       <c r="N66" s="3">
+        <v>500</v>
+      </c>
+      <c r="O66" s="3">
         <v>600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>800</v>
-      </c>
-      <c r="R66" s="3">
-        <v>500</v>
       </c>
       <c r="S66" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E76" s="3">
         <v>5100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>19300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>18000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9100</v>
-      </c>
-      <c r="K76" s="3">
-        <v>2600</v>
       </c>
       <c r="L76" s="3">
         <v>2600</v>
       </c>
       <c r="M76" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N76" s="3">
         <v>3200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2400</v>
-      </c>
-      <c r="O76" s="3">
-        <v>2900</v>
       </c>
       <c r="P76" s="3">
         <v>2900</v>
       </c>
       <c r="Q76" s="3">
-        <v>-200</v>
+        <v>2900</v>
       </c>
       <c r="R76" s="3">
         <v>-200</v>
       </c>
       <c r="S76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T76" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E80" s="2">
         <v>43982</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43890</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43799</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43708</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43616</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43524</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43434</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43343</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43251</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43159</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43069</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42978</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42886</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42794</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42704</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4159,52 +4354,55 @@
         <v>-700</v>
       </c>
       <c r="E81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3700</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-700</v>
       </c>
       <c r="K81" s="3">
         <v>-700</v>
       </c>
       <c r="L81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-100</v>
       </c>
       <c r="S81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,13 +4422,14 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
@@ -4239,7 +4438,7 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -4251,11 +4450,11 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-700</v>
       </c>
       <c r="J89" s="3">
         <v>-700</v>
       </c>
       <c r="K89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-200</v>
       </c>
       <c r="Q89" s="3">
         <v>-200</v>
       </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,17 +4836,18 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
@@ -4634,43 +4855,46 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-600</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E94" s="3">
         <v>300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5082,40 +5328,43 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>7100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-600</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2600</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>300</v>
       </c>
       <c r="R102" s="3">
         <v>300</v>
       </c>
       <c r="S102" s="3">
+        <v>300</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNBX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNBX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
   <si>
     <t>CNBX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,92 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E7" s="2">
         <v>44074</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43982</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43890</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43799</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43708</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43616</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43524</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43434</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43343</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43251</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43159</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43069</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42978</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42886</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42794</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42704</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -796,14 +799,17 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T8" s="3">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -951,49 +964,52 @@
         <v>400</v>
       </c>
       <c r="G12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H12" s="3">
         <v>500</v>
       </c>
       <c r="I12" s="3">
+        <v>500</v>
+      </c>
+      <c r="J12" s="3">
         <v>300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>200</v>
-      </c>
-      <c r="P12" s="3">
-        <v>100</v>
       </c>
       <c r="Q12" s="3">
         <v>100</v>
       </c>
       <c r="R12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S12" s="3">
         <v>0</v>
       </c>
       <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1083,8 +1102,8 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1139,8 +1161,8 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>4</v>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1204,9 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1191,52 +1217,55 @@
         <v>700</v>
       </c>
       <c r="F17" s="3">
+        <v>700</v>
+      </c>
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
-      </c>
-      <c r="K17" s="3">
-        <v>700</v>
       </c>
       <c r="L17" s="3">
         <v>700</v>
       </c>
       <c r="M17" s="3">
+        <v>700</v>
+      </c>
+      <c r="N17" s="3">
         <v>900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>200</v>
-      </c>
-      <c r="S17" s="3">
-        <v>100</v>
       </c>
       <c r="T17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1247,52 +1276,55 @@
         <v>-700</v>
       </c>
       <c r="F18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-900</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-700</v>
       </c>
       <c r="L18" s="3">
         <v>-700</v>
       </c>
       <c r="M18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N18" s="3">
         <v>-900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,26 +1355,26 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-4300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4600</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1349,28 +1382,31 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1381,52 +1417,55 @@
         <v>-700</v>
       </c>
       <c r="F21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1472,17 +1511,20 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1493,52 +1535,55 @@
         <v>-700</v>
       </c>
       <c r="F23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3700</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-700</v>
       </c>
       <c r="L23" s="3">
         <v>-700</v>
       </c>
       <c r="M23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-100</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1697,11 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1661,52 +1712,55 @@
         <v>-700</v>
       </c>
       <c r="F26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3700</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-700</v>
       </c>
       <c r="L26" s="3">
         <v>-700</v>
       </c>
       <c r="M26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-100</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1717,52 +1771,55 @@
         <v>-700</v>
       </c>
       <c r="F27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3700</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-700</v>
       </c>
       <c r="L27" s="3">
         <v>-700</v>
       </c>
       <c r="M27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-100</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,26 +2063,26 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>4300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4600</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2021,28 +2090,31 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2053,52 +2125,55 @@
         <v>-700</v>
       </c>
       <c r="F33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3700</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-700</v>
       </c>
       <c r="L33" s="3">
         <v>-700</v>
       </c>
       <c r="M33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-100</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2228,11 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2165,113 +2243,119 @@
         <v>-700</v>
       </c>
       <c r="F35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3700</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-700</v>
       </c>
       <c r="L35" s="3">
         <v>-700</v>
       </c>
       <c r="M35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-100</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E38" s="2">
         <v>44074</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43982</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43890</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43799</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43708</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43616</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43524</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43434</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43343</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43251</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43159</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43069</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42978</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42886</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42794</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42704</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,88 +2399,92 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
-      </c>
-      <c r="G41" s="3">
-        <v>300</v>
       </c>
       <c r="H41" s="3">
         <v>300</v>
       </c>
       <c r="I41" s="3">
+        <v>300</v>
+      </c>
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2200</v>
-      </c>
-      <c r="N41" s="3">
-        <v>2900</v>
       </c>
       <c r="O41" s="3">
         <v>2900</v>
       </c>
       <c r="P41" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Q41" s="3">
         <v>3400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>300</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>1100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>3900</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2405,8 +2494,8 @@
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2426,13 +2515,16 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2444,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>500</v>
@@ -2455,8 +2547,8 @@
       <c r="K43" s="3">
         <v>500</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3">
+        <v>500</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
@@ -2473,8 +2565,8 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2482,8 +2574,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2633,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2556,22 +2654,22 @@
         <v>200</v>
       </c>
       <c r="H45" s="3">
+        <v>200</v>
+      </c>
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
-      </c>
-      <c r="K45" s="3">
-        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>200</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -2583,108 +2681,114 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>300</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>500</v>
+      </c>
+      <c r="E47" s="3">
         <v>400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>9200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>7300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>600</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2697,8 +2801,8 @@
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -2706,13 +2810,16 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E48" s="3">
         <v>900</v>
@@ -2721,7 +2828,7 @@
         <v>900</v>
       </c>
       <c r="G48" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H48" s="3">
         <v>1000</v>
@@ -2739,13 +2846,13 @@
         <v>1000</v>
       </c>
       <c r="M48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N48" s="3">
         <v>800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>700</v>
-      </c>
-      <c r="O48" s="3">
-        <v>100</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
@@ -2754,7 +2861,7 @@
         <v>100</v>
       </c>
       <c r="R48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -2762,13 +2869,16 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
@@ -2780,22 +2890,22 @@
         <v>0</v>
       </c>
       <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
         <v>3900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>200</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2956,11 +3075,11 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
@@ -2977,8 +3096,8 @@
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E54" s="3">
         <v>2200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>15200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>19800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>18300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9500</v>
-      </c>
-      <c r="L54" s="3">
-        <v>3200</v>
       </c>
       <c r="M54" s="3">
         <v>3200</v>
       </c>
       <c r="N54" s="3">
+        <v>3200</v>
+      </c>
+      <c r="O54" s="3">
         <v>3700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>300</v>
       </c>
-      <c r="T54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3271,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3172,7 +3302,7 @@
         <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
@@ -3184,22 +3314,25 @@
         <v>300</v>
       </c>
       <c r="P57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
-      </c>
-      <c r="R57" s="3">
-        <v>200</v>
       </c>
       <c r="S57" s="3">
         <v>200</v>
       </c>
       <c r="T57" s="3">
+        <v>200</v>
+      </c>
+      <c r="U57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,8 +3387,11 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3293,7 +3429,7 @@
         <v>200</v>
       </c>
       <c r="O59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P59" s="3">
         <v>300</v>
@@ -3302,24 +3438,27 @@
         <v>300</v>
       </c>
       <c r="R59" s="3">
+        <v>300</v>
+      </c>
+      <c r="S59" s="3">
         <v>500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>400</v>
+      </c>
+      <c r="E60" s="3">
         <v>500</v>
-      </c>
-      <c r="E60" s="3">
-        <v>400</v>
       </c>
       <c r="F60" s="3">
         <v>400</v>
@@ -3331,16 +3470,16 @@
         <v>400</v>
       </c>
       <c r="I60" s="3">
+        <v>400</v>
+      </c>
+      <c r="J60" s="3">
         <v>500</v>
-      </c>
-      <c r="J60" s="3">
-        <v>400</v>
       </c>
       <c r="K60" s="3">
         <v>400</v>
       </c>
       <c r="L60" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M60" s="3">
         <v>500</v>
@@ -3349,25 +3488,28 @@
         <v>500</v>
       </c>
       <c r="O60" s="3">
+        <v>500</v>
+      </c>
+      <c r="P60" s="3">
         <v>600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>800</v>
-      </c>
-      <c r="S60" s="3">
-        <v>500</v>
       </c>
       <c r="T60" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3564,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3454,8 +3599,8 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3469,17 +3614,20 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
+      <c r="R62" s="3">
+        <v>0</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,16 +3800,19 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>400</v>
+      </c>
+      <c r="E66" s="3">
         <v>500</v>
-      </c>
-      <c r="E66" s="3">
-        <v>400</v>
       </c>
       <c r="F66" s="3">
         <v>400</v>
@@ -3667,16 +3824,16 @@
         <v>400</v>
       </c>
       <c r="I66" s="3">
+        <v>400</v>
+      </c>
+      <c r="J66" s="3">
         <v>500</v>
-      </c>
-      <c r="J66" s="3">
-        <v>400</v>
       </c>
       <c r="K66" s="3">
         <v>400</v>
       </c>
       <c r="L66" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M66" s="3">
         <v>500</v>
@@ -3685,25 +3842,28 @@
         <v>500</v>
       </c>
       <c r="O66" s="3">
+        <v>500</v>
+      </c>
+      <c r="P66" s="3">
         <v>600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>800</v>
-      </c>
-      <c r="S66" s="3">
-        <v>500</v>
       </c>
       <c r="T66" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-11300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>19300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>18000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9100</v>
-      </c>
-      <c r="L76" s="3">
-        <v>2600</v>
       </c>
       <c r="M76" s="3">
         <v>2600</v>
       </c>
       <c r="N76" s="3">
+        <v>2600</v>
+      </c>
+      <c r="O76" s="3">
         <v>3200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2400</v>
-      </c>
-      <c r="P76" s="3">
-        <v>2900</v>
       </c>
       <c r="Q76" s="3">
         <v>2900</v>
       </c>
       <c r="R76" s="3">
-        <v>-200</v>
+        <v>2900</v>
       </c>
       <c r="S76" s="3">
         <v>-200</v>
       </c>
       <c r="T76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U76" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4472,75 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E80" s="2">
         <v>44074</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43982</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43890</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43799</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43708</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43616</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43524</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43434</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43343</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43251</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43159</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43069</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42978</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42886</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42794</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42704</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4357,52 +4551,55 @@
         <v>-700</v>
       </c>
       <c r="F81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3700</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-700</v>
       </c>
       <c r="L81" s="3">
         <v>-700</v>
       </c>
       <c r="M81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-100</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,16 +4620,17 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -4441,7 +4639,7 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -4453,11 +4651,11 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-700</v>
       </c>
       <c r="K89" s="3">
         <v>-700</v>
       </c>
       <c r="L89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-200</v>
       </c>
       <c r="R89" s="3">
         <v>-200</v>
       </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4846,11 +5066,11 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -4858,43 +5078,46 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>1100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-600</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,13 +5549,16 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -5331,40 +5576,43 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>7100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-600</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2600</v>
-      </c>
-      <c r="R102" s="3">
-        <v>300</v>
       </c>
       <c r="S102" s="3">
         <v>300</v>
       </c>
       <c r="T102" s="3">
+        <v>300</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNBX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNBX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
   <si>
     <t>CNBX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E7" s="2">
         <v>44165</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44074</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43982</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43890</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43799</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43708</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43616</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43524</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43434</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43343</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43251</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43159</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43069</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42978</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42886</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42794</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42704</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,14 +806,17 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U8" s="3">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,13 +962,14 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E12" s="3">
         <v>400</v>
@@ -967,49 +981,52 @@
         <v>400</v>
       </c>
       <c r="H12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I12" s="3">
         <v>500</v>
       </c>
       <c r="J12" s="3">
+        <v>500</v>
+      </c>
+      <c r="K12" s="3">
         <v>300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>200</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>100</v>
       </c>
       <c r="R12" s="3">
         <v>100</v>
       </c>
       <c r="S12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T12" s="3">
         <v>0</v>
       </c>
       <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1105,8 +1125,8 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1164,8 +1187,8 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>4</v>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,8 +1231,9 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1220,52 +1247,55 @@
         <v>700</v>
       </c>
       <c r="G17" s="3">
+        <v>700</v>
+      </c>
+      <c r="H17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
-      </c>
-      <c r="L17" s="3">
-        <v>700</v>
       </c>
       <c r="M17" s="3">
         <v>700</v>
       </c>
       <c r="N17" s="3">
+        <v>700</v>
+      </c>
+      <c r="O17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>200</v>
-      </c>
-      <c r="T17" s="3">
-        <v>100</v>
       </c>
       <c r="U17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,52 +1309,55 @@
         <v>-700</v>
       </c>
       <c r="G18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-700</v>
       </c>
       <c r="M18" s="3">
         <v>-700</v>
       </c>
       <c r="N18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O18" s="3">
         <v>-900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1355,29 +1389,29 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-4300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4600</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1385,28 +1419,31 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1414,58 +1451,61 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="F21" s="3">
         <v>-700</v>
       </c>
       <c r="G21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H21" s="3">
         <v>-800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-400</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1514,22 +1554,25 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="E23" s="3">
         <v>-700</v>
@@ -1538,52 +1581,55 @@
         <v>-700</v>
       </c>
       <c r="G23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3700</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-700</v>
       </c>
       <c r="M23" s="3">
         <v>-700</v>
       </c>
       <c r="N23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-100</v>
       </c>
       <c r="U23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,13 +1749,16 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="E26" s="3">
         <v>-700</v>
@@ -1715,57 +1767,60 @@
         <v>-700</v>
       </c>
       <c r="G26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3700</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-700</v>
       </c>
       <c r="M26" s="3">
         <v>-700</v>
       </c>
       <c r="N26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-100</v>
       </c>
       <c r="U26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="E27" s="3">
         <v>-700</v>
@@ -1774,52 +1829,55 @@
         <v>-700</v>
       </c>
       <c r="G27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3700</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-700</v>
       </c>
       <c r="M27" s="3">
         <v>-700</v>
       </c>
       <c r="N27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-100</v>
       </c>
       <c r="U27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2063,29 +2133,29 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>4300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4600</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2093,33 +2163,36 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="E33" s="3">
         <v>-700</v>
@@ -2128,52 +2201,55 @@
         <v>-700</v>
       </c>
       <c r="G33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3700</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-700</v>
       </c>
       <c r="M33" s="3">
         <v>-700</v>
       </c>
       <c r="N33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-100</v>
       </c>
       <c r="U33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,13 +2307,16 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="E35" s="3">
         <v>-700</v>
@@ -2246,116 +2325,122 @@
         <v>-700</v>
       </c>
       <c r="G35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3700</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-700</v>
       </c>
       <c r="M35" s="3">
         <v>-700</v>
       </c>
       <c r="N35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-100</v>
       </c>
       <c r="U35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E38" s="2">
         <v>44165</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44074</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43982</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43890</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43799</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43708</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43616</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43524</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43434</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43343</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43251</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43159</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43069</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42978</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42886</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42794</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42704</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,94 +2486,98 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
-      </c>
-      <c r="H41" s="3">
-        <v>300</v>
       </c>
       <c r="I41" s="3">
         <v>300</v>
       </c>
       <c r="J41" s="3">
+        <v>300</v>
+      </c>
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2200</v>
-      </c>
-      <c r="O41" s="3">
-        <v>2900</v>
       </c>
       <c r="P41" s="3">
         <v>2900</v>
       </c>
       <c r="Q41" s="3">
+        <v>2900</v>
+      </c>
+      <c r="R41" s="3">
         <v>3400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>300</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>1100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>3300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>3900</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2497,8 +2587,8 @@
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2518,16 +2608,19 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2539,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>500</v>
@@ -2550,8 +2643,8 @@
       <c r="L43" s="3">
         <v>500</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
+      <c r="M43" s="3">
+        <v>500</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
@@ -2568,8 +2661,8 @@
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2657,22 +2756,22 @@
         <v>200</v>
       </c>
       <c r="I45" s="3">
+        <v>200</v>
+      </c>
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
-      </c>
-      <c r="L45" s="3">
-        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -2684,114 +2783,120 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>300</v>
       </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E47" s="3">
         <v>500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>9200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>600</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2804,8 +2909,8 @@
       <c r="R47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -2813,16 +2918,19 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>700</v>
+      </c>
+      <c r="E48" s="3">
         <v>800</v>
-      </c>
-      <c r="E48" s="3">
-        <v>900</v>
       </c>
       <c r="F48" s="3">
         <v>900</v>
@@ -2831,7 +2939,7 @@
         <v>900</v>
       </c>
       <c r="H48" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I48" s="3">
         <v>1000</v>
@@ -2849,13 +2957,13 @@
         <v>1000</v>
       </c>
       <c r="N48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O48" s="3">
         <v>800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>700</v>
-      </c>
-      <c r="P48" s="3">
-        <v>100</v>
       </c>
       <c r="Q48" s="3">
         <v>100</v>
@@ -2864,7 +2972,7 @@
         <v>100</v>
       </c>
       <c r="S48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -2872,16 +2980,19 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -2893,22 +3004,22 @@
         <v>0</v>
       </c>
       <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
         <v>3900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>200</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,40 +3166,43 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
@@ -3099,8 +3219,8 @@
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>15200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>19800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9500</v>
-      </c>
-      <c r="M54" s="3">
-        <v>3200</v>
       </c>
       <c r="N54" s="3">
         <v>3200</v>
       </c>
       <c r="O54" s="3">
+        <v>3200</v>
+      </c>
+      <c r="P54" s="3">
         <v>3700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>300</v>
       </c>
-      <c r="U54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3305,7 +3436,7 @@
         <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
@@ -3317,45 +3448,48 @@
         <v>300</v>
       </c>
       <c r="Q57" s="3">
+        <v>300</v>
+      </c>
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
-      </c>
-      <c r="S57" s="3">
-        <v>200</v>
       </c>
       <c r="T57" s="3">
         <v>200</v>
       </c>
       <c r="U57" s="3">
+        <v>200</v>
+      </c>
+      <c r="V57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3390,8 +3524,11 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3432,7 +3569,7 @@
         <v>200</v>
       </c>
       <c r="P59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q59" s="3">
         <v>300</v>
@@ -3441,27 +3578,30 @@
         <v>300</v>
       </c>
       <c r="S59" s="3">
+        <v>300</v>
+      </c>
+      <c r="T59" s="3">
         <v>500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
         <v>400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>500</v>
-      </c>
-      <c r="F60" s="3">
-        <v>400</v>
       </c>
       <c r="G60" s="3">
         <v>400</v>
@@ -3473,16 +3613,16 @@
         <v>400</v>
       </c>
       <c r="J60" s="3">
+        <v>400</v>
+      </c>
+      <c r="K60" s="3">
         <v>500</v>
-      </c>
-      <c r="K60" s="3">
-        <v>400</v>
       </c>
       <c r="L60" s="3">
         <v>400</v>
       </c>
       <c r="M60" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N60" s="3">
         <v>500</v>
@@ -3491,25 +3631,28 @@
         <v>500</v>
       </c>
       <c r="P60" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>800</v>
-      </c>
-      <c r="T60" s="3">
-        <v>500</v>
       </c>
       <c r="U60" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3567,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3602,8 +3748,8 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3617,17 +3763,20 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
+      <c r="S62" s="3">
+        <v>0</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,19 +3958,22 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E66" s="3">
         <v>400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>500</v>
-      </c>
-      <c r="F66" s="3">
-        <v>400</v>
       </c>
       <c r="G66" s="3">
         <v>400</v>
@@ -3827,16 +3985,16 @@
         <v>400</v>
       </c>
       <c r="J66" s="3">
+        <v>400</v>
+      </c>
+      <c r="K66" s="3">
         <v>500</v>
-      </c>
-      <c r="K66" s="3">
-        <v>400</v>
       </c>
       <c r="L66" s="3">
         <v>400</v>
       </c>
       <c r="M66" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N66" s="3">
         <v>500</v>
@@ -3845,25 +4003,28 @@
         <v>500</v>
       </c>
       <c r="P66" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q66" s="3">
         <v>600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>800</v>
-      </c>
-      <c r="T66" s="3">
-        <v>500</v>
       </c>
       <c r="U66" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-14300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-7300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-6600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>19300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9100</v>
-      </c>
-      <c r="M76" s="3">
-        <v>2600</v>
       </c>
       <c r="N76" s="3">
         <v>2600</v>
       </c>
       <c r="O76" s="3">
+        <v>2600</v>
+      </c>
+      <c r="P76" s="3">
         <v>3200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2400</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>2900</v>
       </c>
       <c r="R76" s="3">
         <v>2900</v>
       </c>
       <c r="S76" s="3">
-        <v>-200</v>
+        <v>2900</v>
       </c>
       <c r="T76" s="3">
         <v>-200</v>
       </c>
       <c r="U76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V76" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,77 +4664,83 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E80" s="2">
         <v>44165</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44074</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43982</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43890</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43799</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43708</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43616</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43524</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43434</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43343</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43251</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43159</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43069</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42978</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42886</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42794</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42704</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="E81" s="3">
         <v>-700</v>
@@ -4554,52 +4749,55 @@
         <v>-700</v>
       </c>
       <c r="G81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3700</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-700</v>
       </c>
       <c r="M81" s="3">
         <v>-700</v>
       </c>
       <c r="N81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-100</v>
       </c>
       <c r="U81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4630,10 +4829,10 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -4642,7 +4841,7 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -4654,11 +4853,11 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-700</v>
       </c>
       <c r="L89" s="3">
         <v>-700</v>
       </c>
       <c r="M89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-200</v>
       </c>
       <c r="S89" s="3">
         <v>-200</v>
       </c>
       <c r="T89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5069,11 +5290,11 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -5081,43 +5302,46 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>1100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-600</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,16 +5795,19 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -5579,40 +5825,43 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>7100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-600</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2600</v>
-      </c>
-      <c r="S102" s="3">
-        <v>300</v>
       </c>
       <c r="T102" s="3">
         <v>300</v>
       </c>
       <c r="U102" s="3">
+        <v>300</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNBX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNBX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
   <si>
     <t>CNBX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E7" s="2">
         <v>44255</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44165</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44074</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43982</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43890</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43799</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43708</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43616</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43524</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43434</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43343</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43251</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43159</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43069</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42978</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42886</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42794</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42704</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -809,14 +813,17 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V8" s="3">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,16 +976,17 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>600</v>
+      </c>
+      <c r="E12" s="3">
         <v>300</v>
-      </c>
-      <c r="E12" s="3">
-        <v>400</v>
       </c>
       <c r="F12" s="3">
         <v>400</v>
@@ -984,49 +998,52 @@
         <v>400</v>
       </c>
       <c r="I12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J12" s="3">
         <v>500</v>
       </c>
       <c r="K12" s="3">
+        <v>500</v>
+      </c>
+      <c r="L12" s="3">
         <v>300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>200</v>
-      </c>
-      <c r="R12" s="3">
-        <v>100</v>
       </c>
       <c r="S12" s="3">
         <v>100</v>
       </c>
       <c r="T12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U12" s="3">
         <v>0</v>
       </c>
       <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1128,8 +1148,8 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1190,8 +1213,8 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>4</v>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1258,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1250,52 +1277,55 @@
         <v>700</v>
       </c>
       <c r="H17" s="3">
+        <v>700</v>
+      </c>
+      <c r="I17" s="3">
         <v>900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
-      </c>
-      <c r="M17" s="3">
-        <v>700</v>
       </c>
       <c r="N17" s="3">
         <v>700</v>
       </c>
       <c r="O17" s="3">
+        <v>700</v>
+      </c>
+      <c r="P17" s="3">
         <v>900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>200</v>
-      </c>
-      <c r="U17" s="3">
-        <v>100</v>
       </c>
       <c r="V17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1312,52 +1342,55 @@
         <v>-700</v>
       </c>
       <c r="H18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I18" s="3">
         <v>-900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-700</v>
       </c>
       <c r="N18" s="3">
         <v>-700</v>
       </c>
       <c r="O18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P18" s="3">
         <v>-900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,32 +1423,32 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-4300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4600</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1422,28 +1456,31 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,61 +1488,64 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-600</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-700</v>
       </c>
       <c r="G21" s="3">
         <v>-700</v>
       </c>
       <c r="H21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I21" s="3">
         <v>-800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-400</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1557,25 +1597,28 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-700</v>
       </c>
       <c r="F23" s="3">
         <v>-700</v>
@@ -1584,52 +1627,55 @@
         <v>-700</v>
       </c>
       <c r="H23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3700</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-700</v>
       </c>
       <c r="N23" s="3">
         <v>-700</v>
       </c>
       <c r="O23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-100</v>
       </c>
       <c r="V23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,16 +1801,19 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-700</v>
       </c>
       <c r="F26" s="3">
         <v>-700</v>
@@ -1770,60 +1822,63 @@
         <v>-700</v>
       </c>
       <c r="H26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3700</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-700</v>
       </c>
       <c r="N26" s="3">
         <v>-700</v>
       </c>
       <c r="O26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-100</v>
       </c>
       <c r="V26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-700</v>
       </c>
       <c r="F27" s="3">
         <v>-700</v>
@@ -1832,52 +1887,55 @@
         <v>-700</v>
       </c>
       <c r="H27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3700</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-700</v>
       </c>
       <c r="N27" s="3">
         <v>-700</v>
       </c>
       <c r="O27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-100</v>
       </c>
       <c r="V27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,32 +2203,32 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>4300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4600</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2166,36 +2236,39 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-700</v>
       </c>
       <c r="F33" s="3">
         <v>-700</v>
@@ -2204,52 +2277,55 @@
         <v>-700</v>
       </c>
       <c r="H33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3700</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-700</v>
       </c>
       <c r="N33" s="3">
         <v>-700</v>
       </c>
       <c r="O33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-100</v>
       </c>
       <c r="V33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,16 +2386,19 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-700</v>
       </c>
       <c r="F35" s="3">
         <v>-700</v>
@@ -2328,119 +2407,125 @@
         <v>-700</v>
       </c>
       <c r="H35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3700</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-700</v>
       </c>
       <c r="N35" s="3">
         <v>-700</v>
       </c>
       <c r="O35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-100</v>
       </c>
       <c r="V35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E38" s="2">
         <v>44255</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44165</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44074</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43982</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43890</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43799</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43708</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43616</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43524</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43434</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43343</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43251</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43159</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43069</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42978</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42886</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42794</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42704</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
-      </c>
-      <c r="I41" s="3">
-        <v>300</v>
       </c>
       <c r="J41" s="3">
         <v>300</v>
       </c>
       <c r="K41" s="3">
+        <v>300</v>
+      </c>
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2200</v>
-      </c>
-      <c r="P41" s="3">
-        <v>2900</v>
       </c>
       <c r="Q41" s="3">
         <v>2900</v>
       </c>
       <c r="R41" s="3">
+        <v>2900</v>
+      </c>
+      <c r="S41" s="3">
         <v>3400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>300</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2560,27 +2650,27 @@
       <c r="E42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>1100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>3300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3900</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2590,8 +2680,8 @@
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2622,8 +2715,8 @@
       <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2635,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>500</v>
@@ -2646,8 +2739,8 @@
       <c r="M43" s="3">
         <v>500</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
+      <c r="N43" s="3">
+        <v>500</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
@@ -2664,8 +2757,8 @@
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2759,22 +2858,22 @@
         <v>200</v>
       </c>
       <c r="J45" s="3">
+        <v>200</v>
+      </c>
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
-      </c>
-      <c r="M45" s="3">
-        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>200</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
@@ -2786,120 +2885,126 @@
         <v>100</v>
       </c>
       <c r="S45" s="3">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>300</v>
       </c>
-      <c r="V46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>9200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>600</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2912,8 +3017,8 @@
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2930,10 +3038,10 @@
         <v>700</v>
       </c>
       <c r="E48" s="3">
+        <v>700</v>
+      </c>
+      <c r="F48" s="3">
         <v>800</v>
-      </c>
-      <c r="F48" s="3">
-        <v>900</v>
       </c>
       <c r="G48" s="3">
         <v>900</v>
@@ -2942,7 +3050,7 @@
         <v>900</v>
       </c>
       <c r="I48" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="J48" s="3">
         <v>1000</v>
@@ -2960,13 +3068,13 @@
         <v>1000</v>
       </c>
       <c r="O48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P48" s="3">
         <v>800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>700</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>100</v>
       </c>
       <c r="R48" s="3">
         <v>100</v>
@@ -2975,7 +3083,7 @@
         <v>100</v>
       </c>
       <c r="T48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2994,8 +3105,8 @@
       <c r="E49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -3007,22 +3118,22 @@
         <v>0</v>
       </c>
       <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
         <v>3900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>200</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3195,17 +3315,17 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
@@ -3222,8 +3342,8 @@
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E54" s="3">
         <v>5000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>15200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>19800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9500</v>
-      </c>
-      <c r="N54" s="3">
-        <v>3200</v>
       </c>
       <c r="O54" s="3">
         <v>3200</v>
       </c>
       <c r="P54" s="3">
+        <v>3200</v>
+      </c>
+      <c r="Q54" s="3">
         <v>3700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>300</v>
       </c>
-      <c r="V54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3439,7 +3570,7 @@
         <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>300</v>
@@ -3451,31 +3582,34 @@
         <v>300</v>
       </c>
       <c r="R57" s="3">
+        <v>300</v>
+      </c>
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>300</v>
-      </c>
-      <c r="T57" s="3">
-        <v>200</v>
       </c>
       <c r="U57" s="3">
         <v>200</v>
       </c>
       <c r="V57" s="3">
+        <v>200</v>
+      </c>
+      <c r="W57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E58" s="3">
         <v>800</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3491,8 +3625,8 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3527,8 +3661,11 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3572,7 +3709,7 @@
         <v>200</v>
       </c>
       <c r="Q59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R59" s="3">
         <v>300</v>
@@ -3581,30 +3718,33 @@
         <v>300</v>
       </c>
       <c r="T59" s="3">
+        <v>300</v>
+      </c>
+      <c r="U59" s="3">
         <v>500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E60" s="3">
         <v>1200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>500</v>
-      </c>
-      <c r="G60" s="3">
-        <v>400</v>
       </c>
       <c r="H60" s="3">
         <v>400</v>
@@ -3616,16 +3756,16 @@
         <v>400</v>
       </c>
       <c r="K60" s="3">
+        <v>400</v>
+      </c>
+      <c r="L60" s="3">
         <v>500</v>
-      </c>
-      <c r="L60" s="3">
-        <v>400</v>
       </c>
       <c r="M60" s="3">
         <v>400</v>
       </c>
       <c r="N60" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O60" s="3">
         <v>500</v>
@@ -3634,25 +3774,28 @@
         <v>500</v>
       </c>
       <c r="Q60" s="3">
+        <v>500</v>
+      </c>
+      <c r="R60" s="3">
         <v>600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>800</v>
-      </c>
-      <c r="U60" s="3">
-        <v>500</v>
       </c>
       <c r="V60" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3751,8 +3897,8 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3766,17 +3912,20 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
+      <c r="T62" s="3">
+        <v>0</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,22 +4116,25 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>500</v>
-      </c>
-      <c r="G66" s="3">
-        <v>400</v>
       </c>
       <c r="H66" s="3">
         <v>400</v>
@@ -3988,16 +4146,16 @@
         <v>400</v>
       </c>
       <c r="K66" s="3">
+        <v>400</v>
+      </c>
+      <c r="L66" s="3">
         <v>500</v>
-      </c>
-      <c r="L66" s="3">
-        <v>400</v>
       </c>
       <c r="M66" s="3">
         <v>400</v>
       </c>
       <c r="N66" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O66" s="3">
         <v>500</v>
@@ -4006,25 +4164,28 @@
         <v>500</v>
       </c>
       <c r="Q66" s="3">
+        <v>500</v>
+      </c>
+      <c r="R66" s="3">
         <v>600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>800</v>
-      </c>
-      <c r="U66" s="3">
-        <v>500</v>
       </c>
       <c r="V66" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-14800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-13600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-7300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-6600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E76" s="3">
         <v>3800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9100</v>
-      </c>
-      <c r="N76" s="3">
-        <v>2600</v>
       </c>
       <c r="O76" s="3">
         <v>2600</v>
       </c>
       <c r="P76" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Q76" s="3">
         <v>3200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2400</v>
-      </c>
-      <c r="R76" s="3">
-        <v>2900</v>
       </c>
       <c r="S76" s="3">
         <v>2900</v>
       </c>
       <c r="T76" s="3">
-        <v>-200</v>
+        <v>2900</v>
       </c>
       <c r="U76" s="3">
         <v>-200</v>
       </c>
       <c r="V76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W76" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,83 +4856,89 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E80" s="2">
         <v>44255</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44165</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44074</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43982</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43890</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43799</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43708</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43616</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43524</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43434</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43343</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43251</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43159</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43069</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42978</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42886</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42794</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42704</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-700</v>
       </c>
       <c r="F81" s="3">
         <v>-700</v>
@@ -4752,52 +4947,55 @@
         <v>-700</v>
       </c>
       <c r="H81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3700</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-700</v>
       </c>
       <c r="N81" s="3">
         <v>-700</v>
       </c>
       <c r="O81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-100</v>
       </c>
       <c r="V81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4832,10 +5031,10 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -4844,7 +5043,7 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -4856,11 +5055,11 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-700</v>
       </c>
       <c r="M89" s="3">
         <v>-700</v>
       </c>
       <c r="N89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-200</v>
       </c>
       <c r="T89" s="3">
         <v>-200</v>
       </c>
       <c r="U89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5293,11 +5514,11 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -5305,43 +5526,46 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-600</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>600</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>1100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-600</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,19 +6041,22 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>1300</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -5828,40 +6074,43 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>7100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>400</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>600</v>
+      </c>
+      <c r="E102" s="3">
         <v>1200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-600</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2600</v>
-      </c>
-      <c r="T102" s="3">
-        <v>300</v>
       </c>
       <c r="U102" s="3">
         <v>300</v>
       </c>
       <c r="V102" s="3">
+        <v>300</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNBX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNBX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
   <si>
     <t>CNBX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,107 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44439</v>
+      </c>
+      <c r="F7" s="2">
         <v>44347</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44255</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44165</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44074</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43982</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43890</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43799</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43708</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43616</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43524</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43434</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43343</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43251</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43159</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43069</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42978</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42886</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42794</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42704</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -816,14 +823,20 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>4</v>
+      <c r="V8" s="3">
+        <v>0</v>
       </c>
       <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +900,14 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +971,14 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,22 +1002,24 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>500</v>
+      </c>
+      <c r="F12" s="3">
         <v>600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>300</v>
-      </c>
-      <c r="F12" s="3">
-        <v>400</v>
-      </c>
-      <c r="G12" s="3">
-        <v>400</v>
       </c>
       <c r="H12" s="3">
         <v>400</v>
@@ -1001,16 +1028,16 @@
         <v>400</v>
       </c>
       <c r="J12" s="3">
+        <v>400</v>
+      </c>
+      <c r="K12" s="3">
+        <v>400</v>
+      </c>
+      <c r="L12" s="3">
         <v>500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>500</v>
-      </c>
-      <c r="L12" s="3">
-        <v>300</v>
-      </c>
-      <c r="M12" s="3">
-        <v>400</v>
       </c>
       <c r="N12" s="3">
         <v>300</v>
@@ -1022,28 +1049,34 @@
         <v>300</v>
       </c>
       <c r="Q12" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="R12" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S12" s="3">
         <v>100</v>
       </c>
       <c r="T12" s="3">
+        <v>200</v>
+      </c>
+      <c r="U12" s="3">
         <v>100</v>
       </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
       <c r="V12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1140,14 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1151,11 +1190,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
@@ -1172,8 +1211,14 @@
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1216,11 +1261,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>4</v>
@@ -1237,8 +1282,14 @@
       <c r="W15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,16 +1310,18 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="E17" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F17" s="3">
         <v>700</v>
@@ -1280,52 +1333,58 @@
         <v>700</v>
       </c>
       <c r="I17" s="3">
+        <v>700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>700</v>
+      </c>
+      <c r="K17" s="3">
         <v>900</v>
-      </c>
-      <c r="J17" s="3">
-        <v>800</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1000</v>
       </c>
       <c r="L17" s="3">
         <v>800</v>
       </c>
       <c r="M17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N17" s="3">
+        <v>800</v>
+      </c>
+      <c r="O17" s="3">
         <v>900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1700</v>
-      </c>
-      <c r="R17" s="3">
-        <v>500</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1100</v>
       </c>
       <c r="T17" s="3">
         <v>500</v>
       </c>
       <c r="U17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V17" s="3">
+        <v>500</v>
+      </c>
+      <c r="W17" s="3">
         <v>200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,7 +1392,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="F18" s="3">
         <v>-700</v>
@@ -1345,52 +1404,58 @@
         <v>-700</v>
       </c>
       <c r="I18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-900</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-800</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-1000</v>
       </c>
       <c r="L18" s="3">
         <v>-800</v>
       </c>
       <c r="M18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O18" s="3">
         <v>-900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1700</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-1100</v>
       </c>
       <c r="T18" s="3">
         <v>-500</v>
       </c>
       <c r="U18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1479,10 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1423,64 +1490,70 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-4300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>4600</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,64 +1561,70 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-5100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>3800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-1100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-400</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1600,17 +1679,23 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1618,64 +1703,70 @@
         <v>-1300</v>
       </c>
       <c r="E23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G23" s="3">
         <v>-500</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-700</v>
       </c>
       <c r="H23" s="3">
         <v>-700</v>
       </c>
       <c r="I23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-5100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>3700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1830,14 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,8 +1901,14 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1813,64 +1916,70 @@
         <v>-1300</v>
       </c>
       <c r="E26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G26" s="3">
         <v>-500</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-700</v>
       </c>
       <c r="H26" s="3">
         <v>-700</v>
       </c>
       <c r="I26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-5100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>3700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1878,64 +1987,70 @@
         <v>-1300</v>
       </c>
       <c r="E27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G27" s="3">
         <v>-500</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-700</v>
       </c>
       <c r="H27" s="3">
         <v>-700</v>
       </c>
       <c r="I27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-5100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>3700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2114,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2185,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2256,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2327,14 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2203,64 +2342,70 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>600</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>4300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-4600</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2268,64 +2413,70 @@
         <v>-1300</v>
       </c>
       <c r="E33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G33" s="3">
         <v>-500</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-700</v>
       </c>
       <c r="H33" s="3">
         <v>-700</v>
       </c>
       <c r="I33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-5100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>3700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,8 +2540,14 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2398,134 +2555,146 @@
         <v>-1300</v>
       </c>
       <c r="E35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G35" s="3">
         <v>-500</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-700</v>
       </c>
       <c r="H35" s="3">
         <v>-700</v>
       </c>
       <c r="I35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-5100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>3700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44439</v>
+      </c>
+      <c r="F38" s="2">
         <v>44347</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44255</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44165</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44074</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43982</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43890</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43799</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43708</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43616</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43524</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43434</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43343</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43251</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43159</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43069</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42978</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42886</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42794</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42704</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2718,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2745,81 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F41" s="3">
         <v>2000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>5200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>6600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>2900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>3400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>3200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>300</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2653,41 +2832,41 @@
       <c r="F42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>1100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>1500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>2500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>3300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>3900</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2704,19 +2883,25 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2731,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>500</v>
@@ -2742,11 +2927,11 @@
       <c r="N43" s="3">
         <v>500</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
+      <c r="O43" s="3">
+        <v>500</v>
+      </c>
+      <c r="P43" s="3">
+        <v>500</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
@@ -2760,17 +2945,23 @@
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
-      </c>
-      <c r="V43" s="3">
-        <v>0</v>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +3025,14 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2861,25 +3058,25 @@
         <v>200</v>
       </c>
       <c r="K45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>300</v>
       </c>
       <c r="N45" s="3">
+        <v>400</v>
+      </c>
+      <c r="O45" s="3">
+        <v>300</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
-      </c>
-      <c r="P45" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
@@ -2888,129 +3085,141 @@
         <v>100</v>
       </c>
       <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F46" s="3">
         <v>2100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>5200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>5900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>7200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>3000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>3500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>3400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>300</v>
       </c>
-      <c r="W46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>800</v>
+      </c>
+      <c r="F47" s="3">
         <v>1000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>2700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>500</v>
-      </c>
-      <c r="G47" s="3">
-        <v>400</v>
-      </c>
-      <c r="H47" s="3">
-        <v>3000</v>
       </c>
       <c r="I47" s="3">
         <v>400</v>
       </c>
       <c r="J47" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K47" s="3">
+        <v>400</v>
+      </c>
+      <c r="L47" s="3">
         <v>2500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>6000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>9200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>7300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>600</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3020,43 +3229,49 @@
       <c r="T47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
-      </c>
-      <c r="V47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>600</v>
+      </c>
+      <c r="F48" s="3">
         <v>700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>800</v>
-      </c>
-      <c r="G48" s="3">
-        <v>900</v>
-      </c>
-      <c r="H48" s="3">
-        <v>900</v>
       </c>
       <c r="I48" s="3">
         <v>900</v>
       </c>
       <c r="J48" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K48" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L48" s="3">
         <v>1000</v>
@@ -3071,42 +3286,48 @@
         <v>1000</v>
       </c>
       <c r="P48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R48" s="3">
         <v>800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>700</v>
-      </c>
-      <c r="R48" s="3">
-        <v>100</v>
-      </c>
-      <c r="S48" s="3">
-        <v>100</v>
       </c>
       <c r="T48" s="3">
         <v>100</v>
       </c>
       <c r="U48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -3121,25 +3342,25 @@
         <v>0</v>
       </c>
       <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
         <v>3900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>4300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>4100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>200</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -3159,8 +3380,14 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3451,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3522,14 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3318,20 +3557,20 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
+      <c r="P52" s="3">
+        <v>0</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
@@ -3345,17 +3584,23 @@
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
-      </c>
-      <c r="V52" s="3">
-        <v>0</v>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3664,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F54" s="3">
         <v>3800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>5500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>6500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>15200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>19800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>18300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>9500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>3700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>3100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>3600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>3500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>300</v>
       </c>
-      <c r="W54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3766,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3793,10 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3573,10 +3834,10 @@
         <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>300</v>
@@ -3585,22 +3846,28 @@
         <v>300</v>
       </c>
       <c r="S57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T57" s="3">
         <v>300</v>
       </c>
       <c r="U57" s="3">
+        <v>400</v>
+      </c>
+      <c r="V57" s="3">
+        <v>300</v>
+      </c>
+      <c r="W57" s="3">
         <v>200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3608,14 +3875,14 @@
         <v>1100</v>
       </c>
       <c r="E58" s="3">
+        <v>900</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G58" s="3">
         <v>800</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3628,11 +3895,11 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3664,8 +3931,14 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3712,25 +3985,31 @@
         <v>200</v>
       </c>
       <c r="R59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T59" s="3">
         <v>300</v>
       </c>
       <c r="U59" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="V59" s="3">
         <v>300</v>
       </c>
       <c r="W59" s="3">
+        <v>500</v>
+      </c>
+      <c r="X59" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3738,19 +4017,19 @@
         <v>1500</v>
       </c>
       <c r="E60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G60" s="3">
         <v>1200</v>
-      </c>
-      <c r="F60" s="3">
-        <v>400</v>
-      </c>
-      <c r="G60" s="3">
-        <v>500</v>
       </c>
       <c r="H60" s="3">
         <v>400</v>
       </c>
       <c r="I60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J60" s="3">
         <v>400</v>
@@ -3759,43 +4038,49 @@
         <v>400</v>
       </c>
       <c r="L60" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M60" s="3">
         <v>400</v>
       </c>
       <c r="N60" s="3">
+        <v>500</v>
+      </c>
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3">
-        <v>500</v>
-      </c>
       <c r="P60" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q60" s="3">
         <v>500</v>
       </c>
       <c r="R60" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="S60" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T60" s="3">
         <v>600</v>
       </c>
       <c r="U60" s="3">
+        <v>700</v>
+      </c>
+      <c r="V60" s="3">
+        <v>600</v>
+      </c>
+      <c r="W60" s="3">
         <v>800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4144,14 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3900,11 +4191,11 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3915,17 +4206,23 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4286,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4357,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,8 +4428,14 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4128,19 +4443,19 @@
         <v>1500</v>
       </c>
       <c r="E66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G66" s="3">
         <v>1200</v>
-      </c>
-      <c r="F66" s="3">
-        <v>400</v>
-      </c>
-      <c r="G66" s="3">
-        <v>500</v>
       </c>
       <c r="H66" s="3">
         <v>400</v>
       </c>
       <c r="I66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J66" s="3">
         <v>400</v>
@@ -4149,43 +4464,49 @@
         <v>400</v>
       </c>
       <c r="L66" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M66" s="3">
         <v>400</v>
       </c>
       <c r="N66" s="3">
+        <v>500</v>
+      </c>
+      <c r="O66" s="3">
         <v>400</v>
       </c>
-      <c r="O66" s="3">
-        <v>500</v>
-      </c>
       <c r="P66" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q66" s="3">
         <v>500</v>
       </c>
       <c r="R66" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="S66" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T66" s="3">
         <v>600</v>
       </c>
       <c r="U66" s="3">
+        <v>700</v>
+      </c>
+      <c r="V66" s="3">
+        <v>600</v>
+      </c>
+      <c r="W66" s="3">
         <v>800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4530,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4597,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4668,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4739,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4810,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-16100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-14800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-14300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-13600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-12900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-12200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-11300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-6200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-4800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-4200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-8000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-7300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-5700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-4100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-3500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-2400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-2200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-1700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4952,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5023,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +5094,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F76" s="3">
         <v>2300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>3800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>5100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>3200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>6000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>14700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>19300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>18000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>9100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>3200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>2400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>2900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>2900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,78 +5236,90 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44439</v>
+      </c>
+      <c r="F80" s="2">
         <v>44347</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44255</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44165</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44074</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43982</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43890</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43799</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43708</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43616</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43524</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43434</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43343</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43251</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43159</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43069</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42978</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42886</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42794</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42704</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4938,64 +5327,70 @@
         <v>-1300</v>
       </c>
       <c r="E81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G81" s="3">
         <v>-500</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-700</v>
       </c>
       <c r="H81" s="3">
         <v>-700</v>
       </c>
       <c r="I81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-5100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>3700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5414,10 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5034,22 +5431,22 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -5058,14 +5455,14 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
@@ -5084,8 +5481,14 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5552,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5623,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5694,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5765,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5836,14 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5418,7 +5851,7 @@
         <v>-600</v>
       </c>
       <c r="E89" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="F89" s="3">
         <v>-600</v>
@@ -5433,49 +5866,55 @@
         <v>-700</v>
       </c>
       <c r="J89" s="3">
-        <v>-800</v>
+        <v>-600</v>
       </c>
       <c r="K89" s="3">
-        <v>-900</v>
+        <v>-700</v>
       </c>
       <c r="L89" s="3">
         <v>-800</v>
       </c>
       <c r="M89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-400</v>
       </c>
       <c r="R89" s="3">
         <v>-500</v>
       </c>
       <c r="S89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5938,10 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5517,19 +5958,19 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -5538,34 +5979,40 @@
         <v>-100</v>
       </c>
       <c r="O91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>-100</v>
       </c>
       <c r="Q91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S91" s="3">
         <v>-600</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6076,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +6147,14 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5703,64 +6162,70 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>600</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>1100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>1000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-3900</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-700</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-1300</v>
       </c>
       <c r="O94" s="3">
         <v>-700</v>
       </c>
       <c r="P94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-600</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6249,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6316,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6387,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6458,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,25 +6529,31 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>1300</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -6077,40 +6568,46 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>7100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>1100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>2900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>400</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6671,81 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F102" s="3">
         <v>600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-4700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>5200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-600</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>2600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNBX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNBX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>CNBX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,115 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44620</v>
+      </c>
+      <c r="F7" s="2">
         <v>44530</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44439</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44347</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44255</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44165</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44074</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43982</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43890</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43799</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43708</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43616</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43524</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43434</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43343</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43251</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43159</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43069</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42978</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42886</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42794</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42704</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,14 +837,20 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>4</v>
+      <c r="X8" s="3">
+        <v>0</v>
       </c>
       <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,8 +920,14 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +997,14 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,28 +1030,30 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>300</v>
+      </c>
+      <c r="F12" s="3">
         <v>400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>300</v>
-      </c>
-      <c r="H12" s="3">
-        <v>400</v>
-      </c>
-      <c r="I12" s="3">
-        <v>400</v>
       </c>
       <c r="J12" s="3">
         <v>400</v>
@@ -1034,16 +1062,16 @@
         <v>400</v>
       </c>
       <c r="L12" s="3">
+        <v>400</v>
+      </c>
+      <c r="M12" s="3">
+        <v>400</v>
+      </c>
+      <c r="N12" s="3">
         <v>500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>500</v>
-      </c>
-      <c r="N12" s="3">
-        <v>300</v>
-      </c>
-      <c r="O12" s="3">
-        <v>400</v>
       </c>
       <c r="P12" s="3">
         <v>300</v>
@@ -1055,28 +1083,34 @@
         <v>300</v>
       </c>
       <c r="S12" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="T12" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U12" s="3">
         <v>100</v>
       </c>
       <c r="V12" s="3">
+        <v>200</v>
+      </c>
+      <c r="W12" s="3">
         <v>100</v>
       </c>
-      <c r="W12" s="3">
-        <v>0</v>
-      </c>
       <c r="X12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1180,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1196,11 +1236,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1267,11 +1313,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>4</v>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>4</v>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,22 +1364,24 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>700</v>
+      </c>
+      <c r="F17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
-      </c>
-      <c r="F17" s="3">
-        <v>700</v>
-      </c>
-      <c r="G17" s="3">
-        <v>700</v>
       </c>
       <c r="H17" s="3">
         <v>700</v>
@@ -1339,52 +1393,58 @@
         <v>700</v>
       </c>
       <c r="K17" s="3">
+        <v>700</v>
+      </c>
+      <c r="L17" s="3">
+        <v>700</v>
+      </c>
+      <c r="M17" s="3">
         <v>900</v>
-      </c>
-      <c r="L17" s="3">
-        <v>800</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1000</v>
       </c>
       <c r="N17" s="3">
         <v>800</v>
       </c>
       <c r="O17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P17" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q17" s="3">
         <v>900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1700</v>
-      </c>
-      <c r="T17" s="3">
-        <v>500</v>
-      </c>
-      <c r="U17" s="3">
-        <v>1100</v>
       </c>
       <c r="V17" s="3">
         <v>500</v>
       </c>
       <c r="W17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X17" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y17" s="3">
         <v>200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1392,13 +1452,13 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-600</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-700</v>
       </c>
       <c r="H18" s="3">
         <v>-700</v>
@@ -1410,52 +1470,58 @@
         <v>-700</v>
       </c>
       <c r="K18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M18" s="3">
         <v>-900</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-800</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-1000</v>
       </c>
       <c r="N18" s="3">
         <v>-800</v>
       </c>
       <c r="O18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-1700</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-1100</v>
       </c>
       <c r="V18" s="3">
         <v>-500</v>
       </c>
       <c r="W18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="X18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1547,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1490,70 +1558,76 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-4300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>4600</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-200</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1561,70 +1635,76 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-600</v>
+        <v>-1200</v>
       </c>
       <c r="F21" s="3">
         <v>-1300</v>
       </c>
       <c r="G21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-5100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>3800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-1600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-1100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-400</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1685,88 +1765,100 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1300</v>
+        <v>-700</v>
       </c>
       <c r="E23" s="3">
-        <v>-700</v>
+        <v>-1200</v>
       </c>
       <c r="F23" s="3">
         <v>-1300</v>
       </c>
       <c r="G23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-500</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-700</v>
       </c>
       <c r="J23" s="3">
         <v>-700</v>
       </c>
       <c r="K23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-5100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>3700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-1100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1300</v>
+        <v>-700</v>
       </c>
       <c r="E26" s="3">
-        <v>-700</v>
+        <v>-1200</v>
       </c>
       <c r="F26" s="3">
         <v>-1300</v>
       </c>
       <c r="G26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I26" s="3">
         <v>-500</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-700</v>
       </c>
       <c r="J26" s="3">
         <v>-700</v>
       </c>
       <c r="K26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-5100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>3700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-1100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1300</v>
+        <v>-700</v>
       </c>
       <c r="E27" s="3">
-        <v>-700</v>
+        <v>-1200</v>
       </c>
       <c r="F27" s="3">
         <v>-1300</v>
       </c>
       <c r="G27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I27" s="3">
         <v>-500</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-700</v>
       </c>
       <c r="J27" s="3">
         <v>-700</v>
       </c>
       <c r="K27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-5100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>3700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-1100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2467,14 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2342,141 +2482,153 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>500</v>
+      </c>
+      <c r="F32" s="3">
+        <v>200</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>4300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-4600</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>200</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1300</v>
+        <v>-700</v>
       </c>
       <c r="E33" s="3">
-        <v>-700</v>
+        <v>-1200</v>
       </c>
       <c r="F33" s="3">
         <v>-1300</v>
       </c>
       <c r="G33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I33" s="3">
         <v>-500</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-700</v>
       </c>
       <c r="J33" s="3">
         <v>-700</v>
       </c>
       <c r="K33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-5100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>3700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-1100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1300</v>
+        <v>-700</v>
       </c>
       <c r="E35" s="3">
-        <v>-700</v>
+        <v>-1200</v>
       </c>
       <c r="F35" s="3">
         <v>-1300</v>
       </c>
       <c r="G35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I35" s="3">
         <v>-500</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-700</v>
       </c>
       <c r="J35" s="3">
         <v>-700</v>
       </c>
       <c r="K35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-5100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>3700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-1100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44620</v>
+      </c>
+      <c r="F38" s="2">
         <v>44530</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44439</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44347</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44255</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44165</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44074</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43982</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43890</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43799</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43708</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43616</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43524</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43434</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43343</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43251</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43159</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43069</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42978</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42886</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42794</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42704</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,132 +2919,140 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>5200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>6600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>2200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>2900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>2900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>3400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>3200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>300</v>
       </c>
-      <c r="Y41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>1100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>2500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>3300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>3900</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
-      </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -2889,8 +3069,14 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2922,10 +3108,10 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>500</v>
@@ -2933,11 +3119,11 @@
       <c r="P43" s="3">
         <v>500</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
+      <c r="Q43" s="3">
+        <v>500</v>
+      </c>
+      <c r="R43" s="3">
+        <v>500</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>4</v>
@@ -2951,17 +3137,23 @@
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W43" s="3">
-        <v>0</v>
-      </c>
-      <c r="X43" s="3">
-        <v>0</v>
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,13 +3223,19 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
@@ -3064,25 +3262,25 @@
         <v>200</v>
       </c>
       <c r="M45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="O45" s="3">
         <v>300</v>
       </c>
       <c r="P45" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>300</v>
+      </c>
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>200</v>
-      </c>
-      <c r="R45" s="3">
-        <v>100</v>
-      </c>
-      <c r="S45" s="3">
-        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
@@ -3091,141 +3289,153 @@
         <v>100</v>
       </c>
       <c r="V45" s="3">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3">
+        <v>100</v>
+      </c>
+      <c r="X45" s="3">
         <v>200</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>400</v>
+      </c>
+      <c r="F46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>4300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>5200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>5900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>7200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>3000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>2900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>3500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>3400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>300</v>
       </c>
-      <c r="Y46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>200</v>
+      </c>
+      <c r="E47" s="3">
+        <v>200</v>
+      </c>
+      <c r="F47" s="3">
         <v>600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>2700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>500</v>
-      </c>
-      <c r="I47" s="3">
-        <v>400</v>
-      </c>
-      <c r="J47" s="3">
-        <v>3000</v>
       </c>
       <c r="K47" s="3">
         <v>400</v>
       </c>
       <c r="L47" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M47" s="3">
+        <v>400</v>
+      </c>
+      <c r="N47" s="3">
         <v>2500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>6000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>9200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>7300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>1000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>600</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3235,49 +3445,55 @@
       <c r="V47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
-      </c>
-      <c r="X47" s="3">
-        <v>0</v>
+      <c r="W47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>500</v>
+      </c>
+      <c r="F48" s="3">
         <v>600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>800</v>
-      </c>
-      <c r="I48" s="3">
-        <v>900</v>
-      </c>
-      <c r="J48" s="3">
-        <v>900</v>
       </c>
       <c r="K48" s="3">
         <v>900</v>
       </c>
       <c r="L48" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M48" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="N48" s="3">
         <v>1000</v>
@@ -3292,31 +3508,37 @@
         <v>1000</v>
       </c>
       <c r="R48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T48" s="3">
         <v>800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>700</v>
-      </c>
-      <c r="T48" s="3">
-        <v>100</v>
-      </c>
-      <c r="U48" s="3">
-        <v>100</v>
       </c>
       <c r="V48" s="3">
         <v>100</v>
       </c>
       <c r="W48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3348,25 +3570,25 @@
         <v>0</v>
       </c>
       <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
         <v>3900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>4300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>4100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>200</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R49" s="3">
-        <v>0</v>
-      </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3563,20 +3803,20 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
+      <c r="R52" s="3">
+        <v>0</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>4</v>
@@ -3590,17 +3830,23 @@
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W52" s="3">
-        <v>0</v>
-      </c>
-      <c r="X52" s="3">
-        <v>0</v>
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F54" s="3">
         <v>2100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>6500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>15200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>19800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>18300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>9500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>3200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>3200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>3700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>3100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>3600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>3500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>300</v>
       </c>
-      <c r="Y54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,13 +4055,15 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
@@ -3840,10 +4102,10 @@
         <v>200</v>
       </c>
       <c r="Q57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S57" s="3">
         <v>300</v>
@@ -3852,43 +4114,49 @@
         <v>300</v>
       </c>
       <c r="U57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="V57" s="3">
         <v>300</v>
       </c>
       <c r="W57" s="3">
+        <v>400</v>
+      </c>
+      <c r="X57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y57" s="3">
         <v>200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="E58" s="3">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="F58" s="3">
         <v>1100</v>
       </c>
       <c r="G58" s="3">
+        <v>900</v>
+      </c>
+      <c r="H58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I58" s="3">
         <v>800</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3901,11 +4169,11 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3937,8 +4205,14 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3991,51 +4265,57 @@
         <v>200</v>
       </c>
       <c r="T59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V59" s="3">
         <v>300</v>
       </c>
       <c r="W59" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="X59" s="3">
         <v>300</v>
       </c>
       <c r="Y59" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="E60" s="3">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="F60" s="3">
         <v>1500</v>
       </c>
       <c r="G60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I60" s="3">
         <v>1200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>400</v>
-      </c>
-      <c r="I60" s="3">
-        <v>500</v>
       </c>
       <c r="J60" s="3">
         <v>400</v>
       </c>
       <c r="K60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L60" s="3">
         <v>400</v>
@@ -4044,43 +4324,49 @@
         <v>400</v>
       </c>
       <c r="N60" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O60" s="3">
         <v>400</v>
       </c>
       <c r="P60" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3">
-        <v>500</v>
-      </c>
       <c r="R60" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="S60" s="3">
         <v>500</v>
       </c>
       <c r="T60" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="U60" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="V60" s="3">
         <v>600</v>
       </c>
       <c r="W60" s="3">
+        <v>700</v>
+      </c>
+      <c r="X60" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y60" s="3">
         <v>800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4150,31 +4436,37 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
@@ -4197,11 +4489,11 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4212,17 +4504,23 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,34 +4744,40 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="E66" s="3">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="F66" s="3">
         <v>1500</v>
       </c>
       <c r="G66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I66" s="3">
         <v>1200</v>
-      </c>
-      <c r="H66" s="3">
-        <v>400</v>
-      </c>
-      <c r="I66" s="3">
-        <v>500</v>
       </c>
       <c r="J66" s="3">
         <v>400</v>
       </c>
       <c r="K66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L66" s="3">
         <v>400</v>
@@ -4470,43 +4786,49 @@
         <v>400</v>
       </c>
       <c r="N66" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O66" s="3">
         <v>400</v>
       </c>
       <c r="P66" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q66" s="3">
         <v>400</v>
       </c>
-      <c r="Q66" s="3">
-        <v>500</v>
-      </c>
       <c r="R66" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="S66" s="3">
         <v>500</v>
       </c>
       <c r="T66" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="U66" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="V66" s="3">
         <v>600</v>
       </c>
       <c r="W66" s="3">
+        <v>700</v>
+      </c>
+      <c r="X66" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y66" s="3">
         <v>800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-18100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-16800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-16100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-14800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-14300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-13600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-12900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-12200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-11300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-6200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-4800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-4200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-7300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-6600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-5700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-4100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-3500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-2400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-2200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F76" s="3">
         <v>600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>3800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>5100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>6000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>14700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>19300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>18000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>9100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>2600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>3200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>2400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>2900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>2900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44620</v>
+      </c>
+      <c r="F80" s="2">
         <v>44530</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44439</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44347</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44255</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44165</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44074</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43982</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43890</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43799</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43708</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43616</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43524</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43434</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43343</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43251</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43159</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43069</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42978</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42886</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42794</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42704</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1300</v>
+        <v>-700</v>
       </c>
       <c r="E81" s="3">
-        <v>-700</v>
+        <v>-1200</v>
       </c>
       <c r="F81" s="3">
         <v>-1300</v>
       </c>
       <c r="G81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I81" s="3">
         <v>-500</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-700</v>
       </c>
       <c r="J81" s="3">
         <v>-700</v>
       </c>
       <c r="K81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-5100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>3700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-1100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,13 +5812,15 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
@@ -5437,22 +5835,22 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -5461,14 +5859,14 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
         <v>100</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,13 +6270,19 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="E89" s="3">
         <v>-600</v>
@@ -5857,7 +6291,7 @@
         <v>-600</v>
       </c>
       <c r="G89" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="H89" s="3">
         <v>-600</v>
@@ -5872,49 +6306,55 @@
         <v>-700</v>
       </c>
       <c r="L89" s="3">
-        <v>-800</v>
+        <v>-600</v>
       </c>
       <c r="M89" s="3">
-        <v>-900</v>
+        <v>-700</v>
       </c>
       <c r="N89" s="3">
         <v>-800</v>
       </c>
       <c r="O89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="P89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-600</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-400</v>
       </c>
       <c r="T89" s="3">
         <v>-500</v>
       </c>
       <c r="U89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5964,19 +6406,19 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -5985,34 +6427,40 @@
         <v>-100</v>
       </c>
       <c r="Q91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="R91" s="3">
         <v>-100</v>
       </c>
       <c r="S91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U91" s="3">
         <v>-600</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6607,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6168,64 +6628,70 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>600</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>1100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>1000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-3900</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-700</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-1300</v>
       </c>
       <c r="Q94" s="3">
         <v>-700</v>
       </c>
       <c r="R94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="S94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-600</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,31 +7021,37 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>1300</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -6574,40 +7066,46 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>7100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>1100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>2900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>400</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,75 +7175,87 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-600</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
         <v>-600</v>
       </c>
       <c r="F102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-4700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>5200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-600</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>2600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNBX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNBX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
   <si>
     <t>CNBX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,122 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44804</v>
+      </c>
+      <c r="F7" s="2">
         <v>44712</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44620</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44530</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44439</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44347</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44255</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44165</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44074</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43982</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43890</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43799</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43708</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43616</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43524</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43434</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43343</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43251</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43159</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43069</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42978</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42886</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42794</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42704</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -843,14 +850,20 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-      <c r="Z8" s="3" t="s">
-        <v>4</v>
+      <c r="Z8" s="3">
+        <v>0</v>
       </c>
       <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -926,8 +939,14 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1022,14 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,34 +1057,36 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
         <v>200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
+        <v>200</v>
+      </c>
+      <c r="G12" s="3">
         <v>300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>300</v>
-      </c>
-      <c r="J12" s="3">
-        <v>400</v>
-      </c>
-      <c r="K12" s="3">
-        <v>400</v>
       </c>
       <c r="L12" s="3">
         <v>400</v>
@@ -1068,16 +1095,16 @@
         <v>400</v>
       </c>
       <c r="N12" s="3">
+        <v>400</v>
+      </c>
+      <c r="O12" s="3">
+        <v>400</v>
+      </c>
+      <c r="P12" s="3">
         <v>500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>500</v>
-      </c>
-      <c r="P12" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>400</v>
       </c>
       <c r="R12" s="3">
         <v>300</v>
@@ -1089,28 +1116,34 @@
         <v>300</v>
       </c>
       <c r="U12" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="V12" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W12" s="3">
         <v>100</v>
       </c>
       <c r="X12" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y12" s="3">
         <v>100</v>
       </c>
-      <c r="Y12" s="3">
-        <v>0</v>
-      </c>
       <c r="Z12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1219,14 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1242,11 +1281,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
@@ -1263,8 +1302,14 @@
       <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1319,11 +1364,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>4</v>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>4</v>
@@ -1340,8 +1385,14 @@
       <c r="AA15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,28 +1417,30 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>700</v>
-      </c>
-      <c r="I17" s="3">
-        <v>700</v>
       </c>
       <c r="J17" s="3">
         <v>700</v>
@@ -1399,52 +1452,58 @@
         <v>700</v>
       </c>
       <c r="M17" s="3">
+        <v>700</v>
+      </c>
+      <c r="N17" s="3">
+        <v>700</v>
+      </c>
+      <c r="O17" s="3">
         <v>900</v>
-      </c>
-      <c r="N17" s="3">
-        <v>800</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1000</v>
       </c>
       <c r="P17" s="3">
         <v>800</v>
       </c>
       <c r="Q17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R17" s="3">
+        <v>800</v>
+      </c>
+      <c r="S17" s="3">
         <v>900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1700</v>
-      </c>
-      <c r="V17" s="3">
-        <v>500</v>
-      </c>
-      <c r="W17" s="3">
-        <v>1100</v>
       </c>
       <c r="X17" s="3">
         <v>500</v>
       </c>
       <c r="Y17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA17" s="3">
         <v>200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1452,19 +1511,19 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-700</v>
       </c>
       <c r="J18" s="3">
         <v>-700</v>
@@ -1476,52 +1535,58 @@
         <v>-700</v>
       </c>
       <c r="M18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O18" s="3">
         <v>-900</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-800</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-1000</v>
       </c>
       <c r="P18" s="3">
         <v>-800</v>
       </c>
       <c r="Q18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S18" s="3">
         <v>-900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-1700</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-1100</v>
       </c>
       <c r="X18" s="3">
         <v>-500</v>
       </c>
       <c r="Y18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-200</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1614,10 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1558,76 +1625,82 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-4300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>4600</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-200</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1635,76 +1708,82 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-600</v>
       </c>
       <c r="H21" s="3">
         <v>-1300</v>
       </c>
       <c r="I21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-5100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>3800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-1600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-1100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-400</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1771,94 +1850,106 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-700</v>
       </c>
       <c r="H23" s="3">
         <v>-1300</v>
       </c>
       <c r="I23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-500</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-700</v>
       </c>
       <c r="L23" s="3">
         <v>-700</v>
       </c>
       <c r="M23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-5100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>3700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-1600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-1100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +2025,14 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2108,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-700</v>
       </c>
       <c r="H26" s="3">
         <v>-1300</v>
       </c>
       <c r="I26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-700</v>
       </c>
       <c r="L26" s="3">
         <v>-700</v>
       </c>
       <c r="M26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-5100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>3700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-1600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-1100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-700</v>
       </c>
       <c r="H27" s="3">
         <v>-1300</v>
       </c>
       <c r="I27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-500</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-700</v>
       </c>
       <c r="L27" s="3">
         <v>-700</v>
       </c>
       <c r="M27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-5100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>3700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-1600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-1100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2357,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2440,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2606,14 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2482,153 +2621,165 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>4300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-4600</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>200</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-700</v>
       </c>
       <c r="H33" s="3">
         <v>-1300</v>
       </c>
       <c r="I33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-500</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-700</v>
       </c>
       <c r="L33" s="3">
         <v>-700</v>
       </c>
       <c r="M33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-5100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>3700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-1600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-1100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2855,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-700</v>
       </c>
       <c r="H35" s="3">
         <v>-1300</v>
       </c>
       <c r="I35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-500</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-700</v>
       </c>
       <c r="L35" s="3">
         <v>-700</v>
       </c>
       <c r="M35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-5100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>3700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-1600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-1100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44804</v>
+      </c>
+      <c r="F38" s="2">
         <v>44712</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44620</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44530</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44439</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44347</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44255</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44165</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44074</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43982</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43890</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43799</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43708</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43616</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43524</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43434</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43343</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43251</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43159</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43069</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42978</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42886</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42794</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42704</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3092,93 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>5200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>6600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>2200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>2900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>2900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>3400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>3200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>300</v>
       </c>
-      <c r="AA41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3028,37 +3207,37 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>1100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>1500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>2500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>3300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>3900</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
-      </c>
-      <c r="V42" s="3">
-        <v>0</v>
+      <c r="U42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W42" s="3">
         <v>0</v>
@@ -3075,8 +3254,14 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3114,10 +3299,10 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>500</v>
@@ -3125,11 +3310,11 @@
       <c r="R43" s="3">
         <v>500</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
+      <c r="S43" s="3">
+        <v>500</v>
+      </c>
+      <c r="T43" s="3">
+        <v>500</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>4</v>
@@ -3143,17 +3328,23 @@
       <c r="X43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="3">
-        <v>0</v>
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3420,14 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3238,10 +3435,10 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
@@ -3268,25 +3465,25 @@
         <v>200</v>
       </c>
       <c r="O45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Q45" s="3">
         <v>300</v>
       </c>
       <c r="R45" s="3">
+        <v>400</v>
+      </c>
+      <c r="S45" s="3">
+        <v>300</v>
+      </c>
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>200</v>
-      </c>
-      <c r="T45" s="3">
-        <v>100</v>
-      </c>
-      <c r="U45" s="3">
-        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>100</v>
@@ -3295,153 +3492,165 @@
         <v>100</v>
       </c>
       <c r="X45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z45" s="3">
         <v>200</v>
       </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="3">
-        <v>0</v>
-      </c>
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>200</v>
+      </c>
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>5200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>5900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>7200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>2300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>3000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>2900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>3500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>3400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>300</v>
       </c>
-      <c r="AA46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E47" s="3">
         <v>200</v>
       </c>
       <c r="F47" s="3">
+        <v>200</v>
+      </c>
+      <c r="G47" s="3">
+        <v>200</v>
+      </c>
+      <c r="H47" s="3">
         <v>600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>1000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>2700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>500</v>
-      </c>
-      <c r="K47" s="3">
-        <v>400</v>
-      </c>
-      <c r="L47" s="3">
-        <v>3000</v>
       </c>
       <c r="M47" s="3">
         <v>400</v>
       </c>
       <c r="N47" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O47" s="3">
+        <v>400</v>
+      </c>
+      <c r="P47" s="3">
         <v>2500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>6000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>9200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>7300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>1000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>600</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3451,55 +3660,61 @@
       <c r="X47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="3">
-        <v>0</v>
+      <c r="Y47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>400</v>
+      </c>
+      <c r="F48" s="3">
         <v>500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>800</v>
-      </c>
-      <c r="K48" s="3">
-        <v>900</v>
-      </c>
-      <c r="L48" s="3">
-        <v>900</v>
       </c>
       <c r="M48" s="3">
         <v>900</v>
       </c>
       <c r="N48" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="O48" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="P48" s="3">
         <v>1000</v>
@@ -3514,31 +3729,37 @@
         <v>1000</v>
       </c>
       <c r="T48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V48" s="3">
         <v>800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>700</v>
-      </c>
-      <c r="V48" s="3">
-        <v>100</v>
-      </c>
-      <c r="W48" s="3">
-        <v>100</v>
       </c>
       <c r="X48" s="3">
         <v>100</v>
       </c>
       <c r="Y48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3576,25 +3797,25 @@
         <v>0</v>
       </c>
       <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
         <v>3900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>4300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>4100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>200</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T49" s="3">
-        <v>0</v>
-      </c>
-      <c r="U49" s="3">
-        <v>0</v>
+      <c r="U49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
@@ -3614,8 +3835,14 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +4001,14 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3809,20 +4048,20 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
+      <c r="T52" s="3">
+        <v>0</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>4</v>
@@ -3836,17 +4075,23 @@
       <c r="X52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="3">
-        <v>0</v>
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4167,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>800</v>
+      </c>
+      <c r="F54" s="3">
         <v>1000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>5000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>6500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>15200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>19800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>18300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>9500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>3200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>3200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>3700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>3100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>3600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>3500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>300</v>
       </c>
-      <c r="AA54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,19 +4316,21 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
-      </c>
-      <c r="E57" s="3">
-        <v>200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
@@ -4108,10 +4369,10 @@
         <v>200</v>
       </c>
       <c r="S57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U57" s="3">
         <v>300</v>
@@ -4120,49 +4381,55 @@
         <v>300</v>
       </c>
       <c r="W57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="X57" s="3">
         <v>300</v>
       </c>
       <c r="Y57" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA57" s="3">
         <v>200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F58" s="3">
         <v>1600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1300</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G58" s="3">
-        <v>900</v>
       </c>
       <c r="H58" s="3">
         <v>1100</v>
       </c>
       <c r="I58" s="3">
+        <v>900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K58" s="3">
         <v>800</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4175,11 +4442,11 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -4211,8 +4478,14 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4271,57 +4544,63 @@
         <v>200</v>
       </c>
       <c r="V59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X59" s="3">
         <v>300</v>
       </c>
       <c r="Y59" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Z59" s="3">
         <v>300</v>
       </c>
       <c r="AA59" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB59" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F60" s="3">
         <v>2100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1300</v>
       </c>
       <c r="H60" s="3">
         <v>1500</v>
       </c>
       <c r="I60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K60" s="3">
         <v>1200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>400</v>
-      </c>
-      <c r="K60" s="3">
-        <v>500</v>
       </c>
       <c r="L60" s="3">
         <v>400</v>
       </c>
       <c r="M60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N60" s="3">
         <v>400</v>
@@ -4330,43 +4609,49 @@
         <v>400</v>
       </c>
       <c r="P60" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q60" s="3">
         <v>400</v>
       </c>
       <c r="R60" s="3">
+        <v>500</v>
+      </c>
+      <c r="S60" s="3">
         <v>400</v>
       </c>
-      <c r="S60" s="3">
-        <v>500</v>
-      </c>
       <c r="T60" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="U60" s="3">
         <v>500</v>
       </c>
       <c r="V60" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="W60" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="X60" s="3">
         <v>600</v>
       </c>
       <c r="Y60" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA60" s="3">
         <v>800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,37 +4727,43 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -4495,11 +4786,11 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4510,17 +4801,23 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,40 +5059,46 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F66" s="3">
         <v>2100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1800</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1300</v>
       </c>
       <c r="H66" s="3">
         <v>1500</v>
       </c>
       <c r="I66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K66" s="3">
         <v>1200</v>
-      </c>
-      <c r="J66" s="3">
-        <v>400</v>
-      </c>
-      <c r="K66" s="3">
-        <v>500</v>
       </c>
       <c r="L66" s="3">
         <v>400</v>
       </c>
       <c r="M66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N66" s="3">
         <v>400</v>
@@ -4792,43 +5107,49 @@
         <v>400</v>
       </c>
       <c r="P66" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q66" s="3">
         <v>400</v>
       </c>
       <c r="R66" s="3">
+        <v>500</v>
+      </c>
+      <c r="S66" s="3">
         <v>400</v>
       </c>
-      <c r="S66" s="3">
-        <v>500</v>
-      </c>
       <c r="T66" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="U66" s="3">
         <v>500</v>
       </c>
       <c r="V66" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="W66" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="X66" s="3">
         <v>600</v>
       </c>
       <c r="Y66" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA66" s="3">
         <v>800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5422,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5505,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-20100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-19400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-18100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-16800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-16100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-14800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-14300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-13600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-12900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-12200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-11300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-6200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-4200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-8000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-7300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-6600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-5700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-4100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-3500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-1700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5837,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>3800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>5100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>6000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>14700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>19300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>18000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>9100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>2600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>2600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>3200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>2400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>2900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>2900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6003,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44804</v>
+      </c>
+      <c r="F80" s="2">
         <v>44712</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44620</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44530</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44439</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44347</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44255</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44165</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44074</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43982</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43890</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43799</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43708</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43616</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43524</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43434</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43343</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43251</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43159</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43069</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42978</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42886</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42794</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42704</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-700</v>
       </c>
       <c r="H81" s="3">
         <v>-1300</v>
       </c>
       <c r="I81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-500</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-700</v>
       </c>
       <c r="L81" s="3">
         <v>-700</v>
       </c>
       <c r="M81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-5100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>3700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-1600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-1100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6209,10 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5823,10 +6220,10 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -5841,22 +6238,22 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -5865,14 +6262,14 @@
         <v>0</v>
       </c>
       <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
         <v>100</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
-      <c r="U83" s="3">
-        <v>0</v>
-      </c>
       <c r="V83" s="3">
         <v>0</v>
       </c>
@@ -5891,8 +6288,14 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,19 +6703,25 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-600</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-600</v>
       </c>
       <c r="G89" s="3">
         <v>-600</v>
@@ -6297,7 +6730,7 @@
         <v>-600</v>
       </c>
       <c r="I89" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="J89" s="3">
         <v>-600</v>
@@ -6312,49 +6745,55 @@
         <v>-700</v>
       </c>
       <c r="N89" s="3">
-        <v>-800</v>
+        <v>-600</v>
       </c>
       <c r="O89" s="3">
-        <v>-900</v>
+        <v>-700</v>
       </c>
       <c r="P89" s="3">
         <v>-800</v>
       </c>
       <c r="Q89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S89" s="3">
         <v>-700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-600</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-400</v>
       </c>
       <c r="V89" s="3">
         <v>-500</v>
       </c>
       <c r="W89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,13 +6821,15 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -6412,19 +6853,19 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -6433,34 +6874,40 @@
         <v>-100</v>
       </c>
       <c r="S91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="T91" s="3">
         <v>-100</v>
       </c>
       <c r="U91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W91" s="3">
         <v>-600</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,13 +7066,19 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -6634,64 +7093,70 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>600</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>1100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>1000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-3900</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-700</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-1300</v>
       </c>
       <c r="S94" s="3">
         <v>-700</v>
       </c>
       <c r="T94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="U94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-600</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-100</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7184,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7263,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,37 +7512,43 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>1300</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -7072,63 +7563,69 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>7100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>1100</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>2900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>400</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -7181,8 +7678,14 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7190,72 +7693,78 @@
         <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>-600</v>
+        <v>-100</v>
       </c>
       <c r="G102" s="3">
         <v>-600</v>
       </c>
       <c r="H102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J102" s="3">
         <v>600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-1400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>5200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-600</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>2600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNBX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNBX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
   <si>
     <t>CNBX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,126 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E7" s="2">
         <v>44895</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44804</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44712</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44620</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44530</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44439</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44347</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44255</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44165</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44074</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43982</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43890</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43799</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43708</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43616</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43524</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43434</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43343</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43251</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43159</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43069</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42978</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42886</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42794</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42704</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -856,14 +860,17 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-      <c r="AB8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC8" s="3">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -945,8 +952,11 @@
       <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,8 +1038,11 @@
       <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,37 +1072,38 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
         <v>100</v>
-      </c>
-      <c r="E12" s="3">
-        <v>200</v>
       </c>
       <c r="F12" s="3">
         <v>200</v>
       </c>
       <c r="G12" s="3">
+        <v>200</v>
+      </c>
+      <c r="H12" s="3">
         <v>300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>300</v>
-      </c>
-      <c r="L12" s="3">
-        <v>400</v>
       </c>
       <c r="M12" s="3">
         <v>400</v>
@@ -1101,49 +1115,52 @@
         <v>400</v>
       </c>
       <c r="P12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q12" s="3">
         <v>500</v>
       </c>
       <c r="R12" s="3">
+        <v>500</v>
+      </c>
+      <c r="S12" s="3">
         <v>300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>200</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>100</v>
       </c>
       <c r="Z12" s="3">
         <v>100</v>
       </c>
       <c r="AA12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB12" s="3">
         <v>0</v>
       </c>
       <c r="AC12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,8 +1242,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1287,8 +1307,8 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
@@ -1308,8 +1328,11 @@
       <c r="AC14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1370,8 +1393,8 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>4</v>
+      <c r="W15" s="3">
+        <v>0</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>4</v>
@@ -1391,8 +1414,11 @@
       <c r="AC15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,8 +1445,9 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1428,22 +1455,22 @@
         <v>300</v>
       </c>
       <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>700</v>
       </c>
       <c r="K17" s="3">
         <v>700</v>
@@ -1458,52 +1485,55 @@
         <v>700</v>
       </c>
       <c r="O17" s="3">
+        <v>700</v>
+      </c>
+      <c r="P17" s="3">
         <v>900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>900</v>
-      </c>
-      <c r="T17" s="3">
-        <v>700</v>
       </c>
       <c r="U17" s="3">
         <v>700</v>
       </c>
       <c r="V17" s="3">
+        <v>700</v>
+      </c>
+      <c r="W17" s="3">
         <v>900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>200</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>100</v>
       </c>
       <c r="AC17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1511,22 +1541,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-700</v>
       </c>
       <c r="K18" s="3">
         <v>-700</v>
@@ -1541,52 +1571,55 @@
         <v>-700</v>
       </c>
       <c r="O18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P18" s="3">
         <v>-900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-900</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-700</v>
       </c>
       <c r="U18" s="3">
         <v>-700</v>
       </c>
       <c r="V18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W18" s="3">
         <v>-900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-200</v>
       </c>
-      <c r="AB18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,8 +1649,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1631,47 +1665,47 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4600</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1679,28 +1713,31 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-200</v>
       </c>
-      <c r="AB20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC20" s="3">
+      <c r="AC20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1708,82 +1745,85 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-700</v>
       </c>
       <c r="N21" s="3">
         <v>-700</v>
       </c>
       <c r="O21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P21" s="3">
         <v>-800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-400</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC21" s="3">
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1856,46 +1896,49 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-      <c r="AA22" s="3" t="s">
-        <v>4</v>
+      <c r="AA22" s="3">
+        <v>0</v>
       </c>
       <c r="AB22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-700</v>
       </c>
       <c r="M23" s="3">
         <v>-700</v>
@@ -1904,52 +1947,55 @@
         <v>-700</v>
       </c>
       <c r="O23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3700</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-700</v>
       </c>
       <c r="U23" s="3">
         <v>-700</v>
       </c>
       <c r="V23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W23" s="3">
         <v>-900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-400</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>-100</v>
       </c>
       <c r="AC23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2031,8 +2077,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,37 +2163,40 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-700</v>
       </c>
       <c r="M26" s="3">
         <v>-700</v>
@@ -2153,81 +2205,84 @@
         <v>-700</v>
       </c>
       <c r="O26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3700</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-700</v>
       </c>
       <c r="U26" s="3">
         <v>-700</v>
       </c>
       <c r="V26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W26" s="3">
         <v>-900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-400</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>-100</v>
       </c>
       <c r="AC26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-700</v>
       </c>
       <c r="M27" s="3">
         <v>-700</v>
@@ -2236,52 +2291,55 @@
         <v>-700</v>
       </c>
       <c r="O27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3700</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-700</v>
       </c>
       <c r="U27" s="3">
         <v>-700</v>
       </c>
       <c r="V27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W27" s="3">
         <v>-900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-400</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>-100</v>
       </c>
       <c r="AC27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,8 +2679,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2627,47 +2697,47 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>4300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4600</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2675,57 +2745,60 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>200</v>
       </c>
-      <c r="AB32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC32" s="3">
+      <c r="AC32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-700</v>
       </c>
       <c r="M33" s="3">
         <v>-700</v>
@@ -2734,52 +2807,55 @@
         <v>-700</v>
       </c>
       <c r="O33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3700</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-700</v>
       </c>
       <c r="U33" s="3">
         <v>-700</v>
       </c>
       <c r="V33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W33" s="3">
         <v>-900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-400</v>
-      </c>
-      <c r="AB33" s="3">
-        <v>-100</v>
       </c>
       <c r="AC33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,37 +2937,40 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-700</v>
       </c>
       <c r="M35" s="3">
         <v>-700</v>
@@ -2900,140 +2979,146 @@
         <v>-700</v>
       </c>
       <c r="O35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3700</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-700</v>
       </c>
       <c r="U35" s="3">
         <v>-700</v>
       </c>
       <c r="V35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W35" s="3">
         <v>-900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-400</v>
-      </c>
-      <c r="AB35" s="3">
-        <v>-100</v>
       </c>
       <c r="AC35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E38" s="2">
         <v>44895</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44804</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44712</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44620</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44530</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44439</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44347</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44255</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44165</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44074</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43982</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43890</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43799</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43708</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43616</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43524</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43434</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43343</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43251</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43159</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43069</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42978</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42886</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42794</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42704</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,8 +3180,9 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3103,82 +3190,85 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>600</v>
-      </c>
-      <c r="P41" s="3">
-        <v>300</v>
       </c>
       <c r="Q41" s="3">
         <v>300</v>
       </c>
       <c r="R41" s="3">
+        <v>300</v>
+      </c>
+      <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2200</v>
-      </c>
-      <c r="W41" s="3">
-        <v>2900</v>
       </c>
       <c r="X41" s="3">
         <v>2900</v>
       </c>
       <c r="Y41" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Z41" s="3">
         <v>3400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>300</v>
       </c>
-      <c r="AC41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3213,23 +3303,23 @@
         <v>0</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>1100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3900</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3239,8 +3329,8 @@
       <c r="V42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W42" s="3">
-        <v>0</v>
+      <c r="W42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X42" s="3">
         <v>0</v>
@@ -3260,8 +3350,11 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3305,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
         <v>500</v>
@@ -3316,8 +3409,8 @@
       <c r="T43" s="3">
         <v>500</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
+      <c r="U43" s="3">
+        <v>500</v>
       </c>
       <c r="V43" s="3" t="s">
         <v>4</v>
@@ -3334,8 +3427,8 @@
       <c r="Z43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA43" s="3">
-        <v>0</v>
+      <c r="AA43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB43" s="3">
         <v>0</v>
@@ -3343,8 +3436,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,8 +3522,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3441,7 +3540,7 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
@@ -3471,22 +3570,22 @@
         <v>200</v>
       </c>
       <c r="Q45" s="3">
+        <v>200</v>
+      </c>
+      <c r="R45" s="3">
         <v>300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>300</v>
-      </c>
-      <c r="T45" s="3">
-        <v>200</v>
       </c>
       <c r="U45" s="3">
         <v>200</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W45" s="3">
         <v>100</v>
@@ -3498,19 +3597,22 @@
         <v>100</v>
       </c>
       <c r="Z45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA45" s="3">
         <v>200</v>
       </c>
-      <c r="AA45" s="3">
-        <v>0</v>
-      </c>
       <c r="AB45" s="3">
         <v>0</v>
       </c>
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3518,90 +3620,93 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>200</v>
       </c>
       <c r="G46" s="3">
+        <v>200</v>
+      </c>
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>300</v>
       </c>
-      <c r="AC46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>100</v>
-      </c>
-      <c r="E47" s="3">
-        <v>200</v>
       </c>
       <c r="F47" s="3">
         <v>200</v>
@@ -3610,50 +3715,50 @@
         <v>200</v>
       </c>
       <c r="H47" s="3">
+        <v>200</v>
+      </c>
+      <c r="I47" s="3">
         <v>600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>6000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>9200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>7300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>600</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3666,8 +3771,8 @@
       <c r="Z47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA47" s="3">
-        <v>0</v>
+      <c r="AA47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB47" s="3">
         <v>0</v>
@@ -3675,8 +3780,11 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3687,28 +3795,28 @@
         <v>400</v>
       </c>
       <c r="F48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G48" s="3">
         <v>500</v>
       </c>
       <c r="H48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I48" s="3">
         <v>600</v>
       </c>
       <c r="J48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K48" s="3">
         <v>700</v>
       </c>
       <c r="L48" s="3">
+        <v>700</v>
+      </c>
+      <c r="M48" s="3">
         <v>800</v>
-      </c>
-      <c r="M48" s="3">
-        <v>900</v>
       </c>
       <c r="N48" s="3">
         <v>900</v>
@@ -3717,7 +3825,7 @@
         <v>900</v>
       </c>
       <c r="P48" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Q48" s="3">
         <v>1000</v>
@@ -3735,13 +3843,13 @@
         <v>1000</v>
       </c>
       <c r="V48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W48" s="3">
         <v>800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>700</v>
-      </c>
-      <c r="X48" s="3">
-        <v>100</v>
       </c>
       <c r="Y48" s="3">
         <v>100</v>
@@ -3750,7 +3858,7 @@
         <v>100</v>
       </c>
       <c r="AA48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB48" s="3">
         <v>0</v>
@@ -3758,8 +3866,11 @@
       <c r="AC48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3803,22 +3914,22 @@
         <v>0</v>
       </c>
       <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
         <v>3900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>200</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V49" s="3">
-        <v>0</v>
+      <c r="V49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W49" s="3">
         <v>0</v>
@@ -3841,8 +3952,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4124,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4054,17 +4174,17 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
+      <c r="R52" s="3">
+        <v>0</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>4</v>
@@ -4081,8 +4201,8 @@
       <c r="Z52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA52" s="3">
-        <v>0</v>
+      <c r="AA52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB52" s="3">
         <v>0</v>
@@ -4090,8 +4210,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>500</v>
+      </c>
+      <c r="E54" s="3">
         <v>600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>15200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>19800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>18300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9500</v>
-      </c>
-      <c r="U54" s="3">
-        <v>3200</v>
       </c>
       <c r="V54" s="3">
         <v>3200</v>
       </c>
       <c r="W54" s="3">
+        <v>3200</v>
+      </c>
+      <c r="X54" s="3">
         <v>3700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>300</v>
       </c>
-      <c r="AC54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,22 +4448,23 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
@@ -4375,7 +4506,7 @@
         <v>200</v>
       </c>
       <c r="U57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V57" s="3">
         <v>300</v>
@@ -4387,52 +4518,55 @@
         <v>300</v>
       </c>
       <c r="Y57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z57" s="3">
         <v>400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>300</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>200</v>
       </c>
       <c r="AB57" s="3">
         <v>200</v>
       </c>
       <c r="AC57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="E58" s="3">
         <v>1800</v>
       </c>
       <c r="F58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G58" s="3">
         <v>1600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4448,8 +4582,8 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -4484,8 +4618,11 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4550,7 +4687,7 @@
         <v>200</v>
       </c>
       <c r="X59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y59" s="3">
         <v>300</v>
@@ -4559,51 +4696,54 @@
         <v>300</v>
       </c>
       <c r="AA59" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB59" s="3">
         <v>500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
-      </c>
-      <c r="N60" s="3">
-        <v>400</v>
       </c>
       <c r="O60" s="3">
         <v>400</v>
@@ -4615,16 +4755,16 @@
         <v>400</v>
       </c>
       <c r="R60" s="3">
+        <v>400</v>
+      </c>
+      <c r="S60" s="3">
         <v>500</v>
-      </c>
-      <c r="S60" s="3">
-        <v>400</v>
       </c>
       <c r="T60" s="3">
         <v>400</v>
       </c>
       <c r="U60" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="V60" s="3">
         <v>500</v>
@@ -4633,25 +4773,28 @@
         <v>500</v>
       </c>
       <c r="X60" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y60" s="3">
         <v>600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>800</v>
-      </c>
-      <c r="AB60" s="3">
-        <v>500</v>
       </c>
       <c r="AC60" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4733,19 +4876,22 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -4759,14 +4905,14 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
@@ -4792,8 +4938,8 @@
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4807,17 +4953,20 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-      <c r="AA62" s="3" t="s">
-        <v>4</v>
+      <c r="AA62" s="3">
+        <v>0</v>
       </c>
       <c r="AB62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,43 +5220,46 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E66" s="3">
         <v>2600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>500</v>
-      </c>
-      <c r="N66" s="3">
-        <v>400</v>
       </c>
       <c r="O66" s="3">
         <v>400</v>
@@ -5113,16 +5271,16 @@
         <v>400</v>
       </c>
       <c r="R66" s="3">
+        <v>400</v>
+      </c>
+      <c r="S66" s="3">
         <v>500</v>
-      </c>
-      <c r="S66" s="3">
-        <v>400</v>
       </c>
       <c r="T66" s="3">
         <v>400</v>
       </c>
       <c r="U66" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="V66" s="3">
         <v>500</v>
@@ -5131,25 +5289,28 @@
         <v>500</v>
       </c>
       <c r="X66" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y66" s="3">
         <v>600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>800</v>
-      </c>
-      <c r="AB66" s="3">
-        <v>500</v>
       </c>
       <c r="AC66" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-20900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-20500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-20100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-19400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-18100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-16800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-16100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-14800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-14300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-6200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-8000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-7300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-6600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-5700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-4100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-3500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-2400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-1700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,8 +6026,11 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5852,82 +6038,85 @@
         <v>-2000</v>
       </c>
       <c r="E76" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>19300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>18000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9100</v>
-      </c>
-      <c r="U76" s="3">
-        <v>2600</v>
       </c>
       <c r="V76" s="3">
         <v>2600</v>
       </c>
       <c r="W76" s="3">
+        <v>2600</v>
+      </c>
+      <c r="X76" s="3">
         <v>3200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2400</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>2900</v>
       </c>
       <c r="Z76" s="3">
         <v>2900</v>
       </c>
       <c r="AA76" s="3">
-        <v>-200</v>
+        <v>2900</v>
       </c>
       <c r="AB76" s="3">
         <v>-200</v>
       </c>
       <c r="AC76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD76" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,125 +6198,131 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E80" s="2">
         <v>44895</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44804</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44712</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44620</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44530</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44439</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44347</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44255</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44165</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44074</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43982</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43890</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43799</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43708</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43616</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43524</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43434</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43343</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43251</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43159</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43069</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42978</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42886</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42794</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42704</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-700</v>
       </c>
       <c r="M81" s="3">
         <v>-700</v>
@@ -6136,52 +6331,55 @@
         <v>-700</v>
       </c>
       <c r="O81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3700</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-700</v>
       </c>
       <c r="U81" s="3">
         <v>-700</v>
       </c>
       <c r="V81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W81" s="3">
         <v>-900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-400</v>
-      </c>
-      <c r="AB81" s="3">
-        <v>-100</v>
       </c>
       <c r="AC81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6226,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -6244,10 +6443,10 @@
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O83" s="3">
         <v>100</v>
@@ -6256,7 +6455,7 @@
         <v>100</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -6268,11 +6467,11 @@
         <v>0</v>
       </c>
       <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
         <v>100</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
-      </c>
       <c r="W83" s="3">
         <v>0</v>
       </c>
@@ -6294,8 +6493,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,22 +6923,25 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-400</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-600</v>
       </c>
       <c r="H89" s="3">
         <v>-600</v>
@@ -6736,64 +6953,67 @@
         <v>-600</v>
       </c>
       <c r="K89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-800</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-700</v>
       </c>
       <c r="T89" s="3">
         <v>-700</v>
       </c>
       <c r="U89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="V89" s="3">
         <v>-600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>-200</v>
       </c>
       <c r="AA89" s="3">
         <v>-200</v>
       </c>
       <c r="AB89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AC89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,13 +7043,14 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -6859,11 +7080,11 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
@@ -6871,43 +7092,46 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-600</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
       <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-100</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,16 +7299,19 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -7099,64 +7329,67 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>600</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>1100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-600</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
       <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-100</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,40 +7761,43 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>1300</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -7569,51 +7815,54 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>7100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1100</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>2900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>400</v>
       </c>
-      <c r="AC100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
+      <c r="E101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>4</v>
@@ -7627,8 +7876,8 @@
       <c r="J101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -7684,22 +7933,25 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-600</v>
       </c>
       <c r="H102" s="3">
         <v>-600</v>
@@ -7708,63 +7960,66 @@
         <v>-600</v>
       </c>
       <c r="J102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K102" s="3">
         <v>600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-4700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>5200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-600</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>2600</v>
-      </c>
-      <c r="AA102" s="3">
-        <v>300</v>
       </c>
       <c r="AB102" s="3">
         <v>300</v>
       </c>
       <c r="AC102" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNBX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNBX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="92">
   <si>
     <t>CNBX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,149 +665,153 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E7" s="2">
         <v>44985</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44895</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44804</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44712</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44620</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44530</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44439</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44347</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44255</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44165</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44074</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43982</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43890</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43799</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43708</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43616</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43524</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43434</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43343</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43251</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43159</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43069</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42978</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42886</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42794</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42704</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
+      <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -863,14 +867,17 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-      <c r="AC8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD8" s="3">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -955,8 +962,11 @@
       <c r="AD9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,40 +1086,41 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
         <v>100</v>
-      </c>
-      <c r="F12" s="3">
-        <v>200</v>
       </c>
       <c r="G12" s="3">
         <v>200</v>
       </c>
       <c r="H12" s="3">
+        <v>200</v>
+      </c>
+      <c r="I12" s="3">
         <v>300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>300</v>
-      </c>
-      <c r="M12" s="3">
-        <v>400</v>
       </c>
       <c r="N12" s="3">
         <v>400</v>
@@ -1118,49 +1132,52 @@
         <v>400</v>
       </c>
       <c r="Q12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R12" s="3">
         <v>500</v>
       </c>
       <c r="S12" s="3">
+        <v>500</v>
+      </c>
+      <c r="T12" s="3">
         <v>300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>200</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>100</v>
       </c>
       <c r="AA12" s="3">
         <v>100</v>
       </c>
       <c r="AB12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC12" s="3">
         <v>0</v>
       </c>
       <c r="AD12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1310,8 +1330,8 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1396,8 +1419,8 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>4</v>
+      <c r="X15" s="3">
+        <v>0</v>
       </c>
       <c r="Y15" s="3" t="s">
         <v>4</v>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,34 +1472,35 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E17" s="3">
         <v>300</v>
       </c>
       <c r="F17" s="3">
+        <v>300</v>
+      </c>
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>700</v>
       </c>
       <c r="L17" s="3">
         <v>700</v>
@@ -1488,78 +1515,81 @@
         <v>700</v>
       </c>
       <c r="P17" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q17" s="3">
         <v>900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>900</v>
-      </c>
-      <c r="U17" s="3">
-        <v>700</v>
       </c>
       <c r="V17" s="3">
         <v>700</v>
       </c>
       <c r="W17" s="3">
+        <v>700</v>
+      </c>
+      <c r="X17" s="3">
         <v>900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>200</v>
-      </c>
-      <c r="AC17" s="3">
-        <v>100</v>
       </c>
       <c r="AD17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>-600</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-700</v>
       </c>
       <c r="L18" s="3">
         <v>-700</v>
@@ -1574,52 +1604,55 @@
         <v>-700</v>
       </c>
       <c r="P18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-900</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-700</v>
       </c>
       <c r="V18" s="3">
         <v>-700</v>
       </c>
       <c r="W18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="X18" s="3">
         <v>-900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-200</v>
       </c>
-      <c r="AC18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,180 +1683,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H20" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M20" s="3">
+        <v>100</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="S20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T20" s="3">
+        <v>200</v>
+      </c>
+      <c r="U20" s="3">
+        <v>4600</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="AD20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>-600</v>
-      </c>
-      <c r="L20" s="3">
-        <v>100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-400</v>
-      </c>
-      <c r="S20" s="3">
-        <v>200</v>
-      </c>
-      <c r="T20" s="3">
-        <v>4600</v>
-      </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-      <c r="X20" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>200</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="AC20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD20" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="D21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L21" s="3">
         <v>-1300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N21" s="3">
         <v>-600</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-700</v>
       </c>
       <c r="O21" s="3">
         <v>-700</v>
       </c>
       <c r="P21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-5100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-400</v>
       </c>
-      <c r="AC21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD21" s="3">
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1899,49 +1939,52 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-      <c r="AB22" s="3" t="s">
-        <v>4</v>
+      <c r="AB22" s="3">
+        <v>0</v>
       </c>
       <c r="AC22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-700</v>
       </c>
       <c r="N23" s="3">
         <v>-700</v>
@@ -1950,52 +1993,55 @@
         <v>-700</v>
       </c>
       <c r="P23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3700</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-700</v>
       </c>
       <c r="V23" s="3">
         <v>-700</v>
       </c>
       <c r="W23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="X23" s="3">
         <v>-900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-400</v>
-      </c>
-      <c r="AC23" s="3">
-        <v>-100</v>
       </c>
       <c r="AD23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,40 +2215,43 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-700</v>
       </c>
       <c r="N26" s="3">
         <v>-700</v>
@@ -2208,84 +2260,87 @@
         <v>-700</v>
       </c>
       <c r="P26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3700</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-700</v>
       </c>
       <c r="V26" s="3">
         <v>-700</v>
       </c>
       <c r="W26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="X26" s="3">
         <v>-900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-400</v>
-      </c>
-      <c r="AC26" s="3">
-        <v>-100</v>
       </c>
       <c r="AD26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-700</v>
       </c>
       <c r="N27" s="3">
         <v>-700</v>
@@ -2294,52 +2349,55 @@
         <v>-700</v>
       </c>
       <c r="P27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3700</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-700</v>
       </c>
       <c r="V27" s="3">
         <v>-700</v>
       </c>
       <c r="W27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="X27" s="3">
         <v>-900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-400</v>
-      </c>
-      <c r="AC27" s="3">
-        <v>-100</v>
       </c>
       <c r="AD27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,126 +2749,132 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H32" s="3">
-        <v>500</v>
-      </c>
-      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
+        <v>100</v>
+      </c>
+      <c r="L32" s="3">
+        <v>600</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>100</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>4300</v>
+      </c>
+      <c r="S32" s="3">
+        <v>400</v>
+      </c>
+      <c r="T32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U32" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="AD32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>600</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>4300</v>
-      </c>
-      <c r="R32" s="3">
-        <v>400</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-      <c r="X32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>200</v>
-      </c>
-      <c r="AC32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-700</v>
       </c>
       <c r="N33" s="3">
         <v>-700</v>
@@ -2810,52 +2883,55 @@
         <v>-700</v>
       </c>
       <c r="P33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3700</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-700</v>
       </c>
       <c r="V33" s="3">
         <v>-700</v>
       </c>
       <c r="W33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="X33" s="3">
         <v>-900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-400</v>
-      </c>
-      <c r="AC33" s="3">
-        <v>-100</v>
       </c>
       <c r="AD33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,40 +3016,43 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-700</v>
       </c>
       <c r="N35" s="3">
         <v>-700</v>
@@ -2982,143 +3061,149 @@
         <v>-700</v>
       </c>
       <c r="P35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3700</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-700</v>
       </c>
       <c r="V35" s="3">
         <v>-700</v>
       </c>
       <c r="W35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="X35" s="3">
         <v>-900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-400</v>
-      </c>
-      <c r="AC35" s="3">
-        <v>-100</v>
       </c>
       <c r="AD35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E38" s="2">
         <v>44985</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44895</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44804</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44712</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44620</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44530</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44439</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44347</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44255</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44165</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44074</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43982</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43890</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43799</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43708</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43616</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43524</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43434</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43343</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43251</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43159</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43069</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42978</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42886</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42794</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42704</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,8 +3267,9 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3193,82 +3280,85 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>600</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>300</v>
       </c>
       <c r="R41" s="3">
         <v>300</v>
       </c>
       <c r="S41" s="3">
+        <v>300</v>
+      </c>
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2200</v>
-      </c>
-      <c r="X41" s="3">
-        <v>2900</v>
       </c>
       <c r="Y41" s="3">
         <v>2900</v>
       </c>
       <c r="Z41" s="3">
+        <v>2900</v>
+      </c>
+      <c r="AA41" s="3">
         <v>3400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>300</v>
       </c>
-      <c r="AD41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3306,23 +3396,23 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>1100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3900</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3332,8 +3422,8 @@
       <c r="W42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X42" s="3">
-        <v>0</v>
+      <c r="X42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y42" s="3">
         <v>0</v>
@@ -3353,8 +3443,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3401,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
         <v>500</v>
@@ -3412,8 +3505,8 @@
       <c r="U43" s="3">
         <v>500</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
+      <c r="V43" s="3">
+        <v>500</v>
       </c>
       <c r="W43" s="3" t="s">
         <v>4</v>
@@ -3430,8 +3523,8 @@
       <c r="AA43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB43" s="3">
-        <v>0</v>
+      <c r="AB43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC43" s="3">
         <v>0</v>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,13 +3621,16 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -3543,7 +3642,7 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
@@ -3573,22 +3672,22 @@
         <v>200</v>
       </c>
       <c r="R45" s="3">
+        <v>200</v>
+      </c>
+      <c r="S45" s="3">
         <v>300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>300</v>
-      </c>
-      <c r="U45" s="3">
-        <v>200</v>
       </c>
       <c r="V45" s="3">
         <v>200</v>
       </c>
       <c r="W45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X45" s="3">
         <v>100</v>
@@ -3600,105 +3699,111 @@
         <v>100</v>
       </c>
       <c r="AA45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB45" s="3">
         <v>200</v>
       </c>
-      <c r="AB45" s="3">
-        <v>0</v>
-      </c>
       <c r="AC45" s="3">
         <v>0</v>
       </c>
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
       </c>
       <c r="H46" s="3">
+        <v>200</v>
+      </c>
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>300</v>
       </c>
-      <c r="AD46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3706,10 +3811,10 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>100</v>
-      </c>
-      <c r="F47" s="3">
-        <v>200</v>
       </c>
       <c r="G47" s="3">
         <v>200</v>
@@ -3718,50 +3823,50 @@
         <v>200</v>
       </c>
       <c r="I47" s="3">
+        <v>200</v>
+      </c>
+      <c r="J47" s="3">
         <v>600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>6000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>9200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>7300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>600</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3774,8 +3879,8 @@
       <c r="AA47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB47" s="3">
-        <v>0</v>
+      <c r="AB47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC47" s="3">
         <v>0</v>
@@ -3783,13 +3888,16 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E48" s="3">
         <v>400</v>
@@ -3798,28 +3906,28 @@
         <v>400</v>
       </c>
       <c r="G48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H48" s="3">
         <v>500</v>
       </c>
       <c r="I48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J48" s="3">
         <v>600</v>
       </c>
       <c r="K48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L48" s="3">
         <v>700</v>
       </c>
       <c r="M48" s="3">
+        <v>700</v>
+      </c>
+      <c r="N48" s="3">
         <v>800</v>
-      </c>
-      <c r="N48" s="3">
-        <v>900</v>
       </c>
       <c r="O48" s="3">
         <v>900</v>
@@ -3828,7 +3936,7 @@
         <v>900</v>
       </c>
       <c r="Q48" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="R48" s="3">
         <v>1000</v>
@@ -3846,13 +3954,13 @@
         <v>1000</v>
       </c>
       <c r="W48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X48" s="3">
         <v>800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>700</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>100</v>
       </c>
       <c r="Z48" s="3">
         <v>100</v>
@@ -3861,7 +3969,7 @@
         <v>100</v>
       </c>
       <c r="AB48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC48" s="3">
         <v>0</v>
@@ -3869,8 +3977,11 @@
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3917,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
         <v>3900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>200</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W49" s="3">
-        <v>0</v>
+      <c r="W49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X49" s="3">
         <v>0</v>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4177,17 +4297,17 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
+      <c r="S52" s="3">
+        <v>0</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>4</v>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>4</v>
@@ -4204,8 +4324,8 @@
       <c r="AA52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB52" s="3">
-        <v>0</v>
+      <c r="AB52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC52" s="3">
         <v>0</v>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>700</v>
+      </c>
+      <c r="E54" s="3">
         <v>500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>15200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>19800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>18300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9500</v>
-      </c>
-      <c r="V54" s="3">
-        <v>3200</v>
       </c>
       <c r="W54" s="3">
         <v>3200</v>
       </c>
       <c r="X54" s="3">
+        <v>3200</v>
+      </c>
+      <c r="Y54" s="3">
         <v>3700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>3500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>300</v>
       </c>
-      <c r="AD54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,25 +4579,26 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
@@ -4509,7 +4640,7 @@
         <v>200</v>
       </c>
       <c r="V57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W57" s="3">
         <v>300</v>
@@ -4521,55 +4652,58 @@
         <v>300</v>
       </c>
       <c r="Z57" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA57" s="3">
         <v>400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>300</v>
-      </c>
-      <c r="AB57" s="3">
-        <v>200</v>
       </c>
       <c r="AC57" s="3">
         <v>200</v>
       </c>
       <c r="AD57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E58" s="3">
         <v>1500</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1800</v>
       </c>
       <c r="F58" s="3">
         <v>1800</v>
       </c>
       <c r="G58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H58" s="3">
         <v>1600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4585,8 +4719,8 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -4621,8 +4755,11 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4690,7 +4827,7 @@
         <v>200</v>
       </c>
       <c r="Y59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z59" s="3">
         <v>300</v>
@@ -4699,54 +4836,57 @@
         <v>300</v>
       </c>
       <c r="AB59" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC59" s="3">
         <v>500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>300</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
         <v>2500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>500</v>
-      </c>
-      <c r="O60" s="3">
-        <v>400</v>
       </c>
       <c r="P60" s="3">
         <v>400</v>
@@ -4758,16 +4898,16 @@
         <v>400</v>
       </c>
       <c r="S60" s="3">
+        <v>400</v>
+      </c>
+      <c r="T60" s="3">
         <v>500</v>
-      </c>
-      <c r="T60" s="3">
-        <v>400</v>
       </c>
       <c r="U60" s="3">
         <v>400</v>
       </c>
       <c r="V60" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="W60" s="3">
         <v>500</v>
@@ -4776,25 +4916,28 @@
         <v>500</v>
       </c>
       <c r="Y60" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z60" s="3">
         <v>600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>800</v>
-      </c>
-      <c r="AC60" s="3">
-        <v>500</v>
       </c>
       <c r="AD60" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4879,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4890,11 +5036,11 @@
       <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -4908,14 +5054,14 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
@@ -4941,8 +5087,8 @@
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -4956,17 +5102,20 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-      <c r="AB62" s="3" t="s">
-        <v>4</v>
+      <c r="AB62" s="3">
+        <v>0</v>
       </c>
       <c r="AC62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,46 +5378,49 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E66" s="3">
         <v>2500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>500</v>
-      </c>
-      <c r="O66" s="3">
-        <v>400</v>
       </c>
       <c r="P66" s="3">
         <v>400</v>
@@ -5274,16 +5432,16 @@
         <v>400</v>
       </c>
       <c r="S66" s="3">
+        <v>400</v>
+      </c>
+      <c r="T66" s="3">
         <v>500</v>
-      </c>
-      <c r="T66" s="3">
-        <v>400</v>
       </c>
       <c r="U66" s="3">
         <v>400</v>
       </c>
       <c r="V66" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="W66" s="3">
         <v>500</v>
@@ -5292,25 +5450,28 @@
         <v>500</v>
       </c>
       <c r="Y66" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z66" s="3">
         <v>600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>800</v>
-      </c>
-      <c r="AC66" s="3">
-        <v>500</v>
       </c>
       <c r="AD66" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-23500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-20900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-20500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-20100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-19400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-18100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-16800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-16100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-14800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-14300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-6200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-8000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-7300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-6600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-4100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-3500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-2200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-1700</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="E76" s="3">
         <v>-2000</v>
       </c>
       <c r="F76" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G76" s="3">
         <v>-1600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>19300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>18000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9100</v>
-      </c>
-      <c r="V76" s="3">
-        <v>2600</v>
       </c>
       <c r="W76" s="3">
         <v>2600</v>
       </c>
       <c r="X76" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Y76" s="3">
         <v>3200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2400</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>2900</v>
       </c>
       <c r="AA76" s="3">
         <v>2900</v>
       </c>
       <c r="AB76" s="3">
-        <v>-200</v>
+        <v>2900</v>
       </c>
       <c r="AC76" s="3">
         <v>-200</v>
       </c>
       <c r="AD76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AE76" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,131 +6390,137 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E80" s="2">
         <v>44985</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44895</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44804</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44712</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44620</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44530</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44439</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44347</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44255</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44165</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44074</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43982</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43890</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43799</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43708</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43616</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43524</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43434</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43343</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43251</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43159</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43069</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42978</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42886</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42794</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42704</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-700</v>
       </c>
       <c r="N81" s="3">
         <v>-700</v>
@@ -6334,52 +6529,55 @@
         <v>-700</v>
       </c>
       <c r="P81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3700</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-700</v>
       </c>
       <c r="V81" s="3">
         <v>-700</v>
       </c>
       <c r="W81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="X81" s="3">
         <v>-900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-400</v>
-      </c>
-      <c r="AC81" s="3">
-        <v>-100</v>
       </c>
       <c r="AD81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6428,7 +6627,7 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -6446,10 +6645,10 @@
         <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
@@ -6458,7 +6657,7 @@
         <v>100</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -6470,11 +6669,11 @@
         <v>0</v>
       </c>
       <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
         <v>100</v>
       </c>
-      <c r="W83" s="3">
-        <v>0</v>
-      </c>
       <c r="X83" s="3">
         <v>0</v>
       </c>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,8 +7140,11 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6935,16 +7152,16 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-400</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-600</v>
       </c>
       <c r="I89" s="3">
         <v>-600</v>
@@ -6956,64 +7173,67 @@
         <v>-600</v>
       </c>
       <c r="L89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-800</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-700</v>
       </c>
       <c r="U89" s="3">
         <v>-700</v>
       </c>
       <c r="V89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W89" s="3">
         <v>-600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-300</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>-200</v>
       </c>
       <c r="AB89" s="3">
         <v>-200</v>
       </c>
       <c r="AC89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AD89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7083,11 +7304,11 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
@@ -7095,43 +7316,46 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-600</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
       <c r="Z91" s="3">
         <v>0</v>
       </c>
       <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-100</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,19 +7529,22 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -7332,64 +7562,67 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>600</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>1100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-600</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
       <c r="Z94" s="3">
         <v>0</v>
       </c>
       <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-100</v>
       </c>
-      <c r="AB94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,43 +8007,46 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>1300</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -7818,40 +8064,43 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>7100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1100</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>2900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>500</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>400</v>
       </c>
-      <c r="AD100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7861,11 +8110,11 @@
       <c r="E101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>4</v>
@@ -7879,8 +8128,8 @@
       <c r="K101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -7936,8 +8185,11 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7945,16 +8197,16 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-600</v>
       </c>
       <c r="I102" s="3">
         <v>-600</v>
@@ -7963,63 +8215,66 @@
         <v>-600</v>
       </c>
       <c r="K102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L102" s="3">
         <v>600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-4700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>5200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-600</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>2600</v>
-      </c>
-      <c r="AB102" s="3">
-        <v>300</v>
       </c>
       <c r="AC102" s="3">
         <v>300</v>
       </c>
       <c r="AD102" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE102" s="3">
         <v>-100</v>
       </c>
     </row>
